--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t xml:space="preserve">Sequential</t>
   </si>
@@ -35,6 +35,72 @@
   </si>
   <si>
     <t xml:space="preserve">MPI_Bcast Speedup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=1, Value=339.143273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=1, Value=664.252208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=32</t>
   </si>
   <si>
     <t xml:space="preserve">N=4000 Thread=1, Value=1330.687030</t>
@@ -80,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +167,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,12 +216,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,10 +352,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,33 +366,111 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.930957</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.04694</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">B2/C2</f>
+        <v>0.889217147114448</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.930957</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.611983</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">B3/C3</f>
+        <v>1.52121382456702</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.930957</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.378323</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">B4/C4</f>
+        <v>2.46074650497062</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.930957</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.246348</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">B5/C5</f>
+        <v>3.77903210093039</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.930957</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.182706</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">B6/C6</f>
+        <v>5.09538274605103</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.930957</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.424336</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">B7/C7</f>
+        <v>2.19391472795144</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
@@ -338,231 +491,498 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>94.732</v>
+        <v>9.79952</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>101.27</v>
+        <v>9.69021</v>
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">B9/C9</f>
-        <v>0.935439913103585</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>81.4338</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">B9/E9</f>
-        <v>1.16330074244356</v>
+        <v>1.01128045728627</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>94.732</v>
+        <v>9.79952</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>74.9206</v>
+        <v>6.34328</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">B10/C10</f>
-        <v>1.26443194528608</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>93.1215</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">B10/E10</f>
-        <v>1.0172946097303</v>
+        <v>1.54486637827748</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>94.732</v>
+        <v>9.79952</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>41.3351</v>
+        <v>3.65836</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">B11/C11</f>
-        <v>2.29180526961348</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>53.2063</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">B11/E11</f>
-        <v>1.78046584708954</v>
+        <v>2.6786647568856</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>94.732</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>22.4687</v>
+        <v>9.79952</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.57054</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">B12/C12</f>
-        <v>4.21617628078171</v>
-      </c>
-      <c r="F12" s="1" t="e">
-        <f aca="false">B12/E12</f>
-        <v>#DIV/0!</v>
+        <v>3.81224178577264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>94.732</v>
+        <v>9.79952</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>11.664</v>
+        <v>1.97658</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">B13/C13</f>
-        <v>8.12174211248285</v>
-      </c>
-      <c r="F13" s="1" t="e">
-        <f aca="false">B13/E13</f>
-        <v>#DIV/0!</v>
+        <v>4.95781602566048</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>94.732</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>21.749</v>
+        <v>9.79952</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.5958</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">B14/C14</f>
-        <v>4.35569451469033</v>
-      </c>
-      <c r="F14" s="1" t="e">
-        <f aca="false">B14/E14</f>
-        <v>#DIV/0!</v>
+        <v>6.14081965158541</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9.79952</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.33467</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">B15/C15</f>
+        <v>7.34227936493665</v>
+      </c>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1053.79</v>
+        <v>9.79952</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1136.81</v>
+        <v>1.06276</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">B16/C16</f>
-        <v>0.926971085757514</v>
-      </c>
+        <v>9.2208212578569</v>
+      </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
+      <c r="A17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1053.79</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>765.885</v>
+        <v>9.79952</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.13512</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">B17/C17</f>
-        <v>1.3759115271875</v>
-      </c>
+        <v>4.58968114204354</v>
+      </c>
+      <c r="F17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1053.79</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>550.531</v>
+        <v>9.79952</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.04942</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">B18/C18</f>
-        <v>1.91413380899532</v>
-      </c>
+        <v>4.78160650330337</v>
+      </c>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>1053.79</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>397.051</v>
+        <v>9.79952</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.80703</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">B19/C19</f>
-        <v>2.65404192408532</v>
-      </c>
+        <v>5.42299795797524</v>
+      </c>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>1053.79</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>228.438</v>
+        <v>9.79952</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.74521</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">B20/C20</f>
-        <v>4.61302410282002</v>
-      </c>
+        <v>5.61509503154348</v>
+      </c>
+      <c r="F20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1053.79</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>274.093</v>
+        <v>9.79952</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.63994</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">B21/C21</f>
+        <v>5.97553569033013</v>
+      </c>
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>9.79952</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.54784</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <f aca="false">B22/C22</f>
+        <v>6.33109365309076</v>
+      </c>
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>9.79952</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.41086</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <f aca="false">B23/C23</f>
+        <v>6.94577775257644</v>
+      </c>
+      <c r="F23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>9.79952</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>2.43496</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <f aca="false">B24/C24</f>
+        <v>4.02450964286888</v>
+      </c>
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>76.8348</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">B26/C26</f>
+        <v>1.10448390573022</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>81.4338</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <f aca="false">B26/E26</f>
+        <v>1.04210782255034</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>63.2284</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <f aca="false">B27/C27</f>
+        <v>1.3421626990403</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>93.1215</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">B27/E27</f>
+        <v>0.911312639938145</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>41.0758</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <f aca="false">B28/C28</f>
+        <v>2.06600480088032</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>53.2063</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">B28/E28</f>
+        <v>1.59497653473367</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>22.4687</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <f aca="false">B29/C29</f>
+        <v>3.77693413504119</v>
+      </c>
+      <c r="F29" s="1" t="e">
+        <f aca="false">B29/E29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>11.664</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <f aca="false">B30/C30</f>
+        <v>7.27561728395062</v>
+      </c>
+      <c r="F30" s="1" t="e">
+        <f aca="false">B30/E30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>21.749</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <f aca="false">B31/C31</f>
+        <v>3.90191732953239</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f aca="false">B31/E31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1136.81</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <f aca="false">B33/C33</f>
+        <v>0.926971085757514</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>765.885</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <f aca="false">B34/C34</f>
+        <v>1.3759115271875</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>550.531</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <f aca="false">B35/C35</f>
+        <v>1.91413380899532</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>397.051</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <f aca="false">B36/C36</f>
+        <v>2.65404192408532</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>228.438</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <f aca="false">B37/C37</f>
+        <v>4.61302410282002</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>274.093</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <f aca="false">B38/C38</f>
         <v>3.84464397120685</v>
       </c>
     </row>

--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Parallel" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Distributed" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t xml:space="preserve">Sequential</t>
   </si>
@@ -31,112 +32,317 @@
     <t xml:space="preserve">FF Speedup</t>
   </si>
   <si>
+    <t xml:space="preserve">N=1024 Thread=1, Value=339.143273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=1, Value=664.252208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2000 Thread=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=1, Value=1330.687030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Thread=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=1, Value=3330.381017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=32</t>
+  </si>
+  <si>
     <t xml:space="preserve">MPI_Bcast</t>
   </si>
   <si>
     <t xml:space="preserve">MPI_Bcast Speedup</t>
   </si>
   <si>
-    <t xml:space="preserve">N=1024 Thread=1, Value=339.143273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=1024 Thread=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=1024 Thread=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=1024 Thread=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=1024 Thread=16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=1024 Thread=32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=1, Value=664.252208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=2000 Thread=32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Thread=1, Value=1330.687030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Thread=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Thread=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Thread=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Thread=16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Thread=32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Thread=1, Value=3330.381017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Thread=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Thread=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Thread=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Thread=16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Thread=32</t>
+    <t xml:space="preserve">N=4000 Process=1, Value=1330.687030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Process=1, Value=3330.381017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N=10000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N=10000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N=10000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N=10000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=32</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -225,7 +431,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,10 +558,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,16 +581,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.930957</v>
@@ -399,7 +600,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.930957</v>
@@ -414,7 +615,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.930957</v>
@@ -429,7 +630,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.930957</v>
@@ -444,7 +645,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.930957</v>
@@ -459,7 +660,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.930957</v>
@@ -482,16 +683,11 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>9.79952</v>
@@ -506,7 +702,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9.79952</v>
@@ -521,7 +717,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9.79952</v>
@@ -536,12 +732,12 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>2.57054</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -551,7 +747,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9.79952</v>
@@ -566,12 +762,12 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>1.5958</v>
       </c>
       <c r="D14" s="1" t="n">
@@ -581,408 +777,547 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>1.33467</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">B15/C15</f>
         <v>7.34227936493665</v>
       </c>
-      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1.06276</v>
+        <v>1.21736</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">B16/C16</f>
-        <v>9.2208212578569</v>
-      </c>
-      <c r="F16" s="0"/>
+        <v>8.04981270946967</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>2.13512</v>
+      <c r="C17" s="1" t="n">
+        <v>1.06276</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">B17/C17</f>
-        <v>4.58968114204354</v>
-      </c>
-      <c r="F17" s="0"/>
+        <v>9.2208212578569</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>2.04942</v>
+      <c r="C18" s="1" t="n">
+        <v>2.13512</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">B18/C18</f>
-        <v>4.78160650330337</v>
-      </c>
-      <c r="F18" s="0"/>
+        <v>4.58968114204354</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>1.80703</v>
+      <c r="C19" s="1" t="n">
+        <v>2.04942</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">B19/C19</f>
-        <v>5.42299795797524</v>
-      </c>
-      <c r="F19" s="0"/>
+        <v>4.78160650330337</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>1.74521</v>
+      <c r="C20" s="1" t="n">
+        <v>1.80703</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">B20/C20</f>
-        <v>5.61509503154348</v>
-      </c>
-      <c r="F20" s="0"/>
+        <v>5.42299795797524</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>1.63994</v>
+      <c r="C21" s="1" t="n">
+        <v>1.74521</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">B21/C21</f>
-        <v>5.97553569033013</v>
-      </c>
-      <c r="F21" s="0"/>
+        <v>5.61509503154348</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>1.54784</v>
+      <c r="C22" s="1" t="n">
+        <v>1.63994</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">B22/C22</f>
-        <v>6.33109365309076</v>
-      </c>
-      <c r="F22" s="0"/>
+        <v>5.97553569033013</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>9.79952</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>1.41086</v>
+      <c r="C23" s="1" t="n">
+        <v>1.54784</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">B23/C23</f>
-        <v>6.94577775257644</v>
-      </c>
-      <c r="F23" s="0"/>
+        <v>6.33109365309076</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>2.43496</v>
+        <v>1.41086</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">B24/C24</f>
+        <v>6.94577775257644</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>9.79952</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>2.43496</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <f aca="false">B25/C25</f>
         <v>4.02450964286888</v>
       </c>
-      <c r="F24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>84.8628</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>76.8348</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <f aca="false">B26/C26</f>
-        <v>1.10448390573022</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>81.4338</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <f aca="false">B26/E26</f>
-        <v>1.04210782255034</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>63.2284</v>
+        <v>76.8348</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">B27/C27</f>
-        <v>1.3421626990403</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>93.1215</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <f aca="false">B27/E27</f>
-        <v>0.911312639938145</v>
-      </c>
+        <v>1.10448390573022</v>
+      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>41.0758</v>
+        <v>63.2284</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">B28/C28</f>
-        <v>2.06600480088032</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>53.2063</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <f aca="false">B28/E28</f>
-        <v>1.59497653473367</v>
-      </c>
+        <v>1.3421626990403</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>22.4687</v>
+        <v>41.0758</v>
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">B29/C29</f>
-        <v>3.77693413504119</v>
-      </c>
-      <c r="F29" s="1" t="e">
-        <f aca="false">B29/E29</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>2.06600480088032</v>
+      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>11.664</v>
+        <v>29.4759</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">B30/C30</f>
-        <v>7.27561728395062</v>
-      </c>
-      <c r="F30" s="1" t="e">
-        <f aca="false">B30/E30</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>2.87905712802663</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>21.749</v>
+        <v>22.4687</v>
       </c>
       <c r="D31" s="1" t="n">
         <f aca="false">B31/C31</f>
-        <v>3.90191732953239</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f aca="false">B31/E31</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>3.77693413504119</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>18.2283</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <f aca="false">B32/C32</f>
+        <v>4.65555208110466</v>
+      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>1136.81</v>
+        <v>15.2715</v>
       </c>
       <c r="D33" s="1" t="n">
         <f aca="false">B33/C33</f>
-        <v>0.926971085757514</v>
-      </c>
+        <v>5.55693939691582</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>765.885</v>
+        <v>13.2412</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">B34/C34</f>
-        <v>1.3759115271875</v>
-      </c>
+        <v>6.40899616348971</v>
+      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>550.531</v>
+        <v>11.664</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">B35/C35</f>
-        <v>1.91413380899532</v>
-      </c>
+        <v>7.27561728395062</v>
+      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>397.051</v>
+        <v>20.9586</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">B36/C36</f>
-        <v>2.65404192408532</v>
-      </c>
+        <v>4.04906816294982</v>
+      </c>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1053.79</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>228.438</v>
+        <v>84.8628</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>20.8731</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">B37/C37</f>
-        <v>4.61302410282002</v>
+        <v>4.0656538798741</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1053.79</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>274.093</v>
+        <v>84.8628</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>19.3388</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">B38/C38</f>
+        <v>4.3882143669721</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>17.8389</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <f aca="false">B39/C39</f>
+        <v>4.75717673174916</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>16.7305</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <f aca="false">B40/C40</f>
+        <v>5.07234093422193</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>15.7138</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <f aca="false">B41/C41</f>
+        <v>5.40052692537769</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>14.8194</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <f aca="false">B42/C42</f>
+        <v>5.72646665856917</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>21.749</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <f aca="false">B43/C43</f>
+        <v>3.90191732953239</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1136.81</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <f aca="false">B45/C45</f>
+        <v>0.926971085757514</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>765.885</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <f aca="false">B46/C46</f>
+        <v>1.3759115271875</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>550.531</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <f aca="false">B47/C47</f>
+        <v>1.91413380899532</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>397.051</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <f aca="false">B48/C48</f>
+        <v>2.65404192408532</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>228.438</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <f aca="false">B49/C49</f>
+        <v>4.61302410282002</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>274.093</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <f aca="false">B50/C50</f>
         <v>3.84464397120685</v>
       </c>
     </row>
@@ -995,4 +1330,426 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>81.4338</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">B2/C2</f>
+        <v>1.04210782255034</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>92.6009</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">B3/C3</f>
+        <v>0.916436017360522</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>53.2063</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">B4/C4</f>
+        <v>1.59497653473367</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>40.0185</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">B5/C5</f>
+        <v>2.12058922748229</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>34.919</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">B6/C6</f>
+        <v>2.43027578109339</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>31.7825</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">B7/C7</f>
+        <v>2.67011091009203</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>29.423</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">B8/C8</f>
+        <v>2.88423342283248</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>27.4245</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">B9/C9</f>
+        <v>3.09441557731226</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>25.5894</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">B10/C10</f>
+        <v>3.31632629135501</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>42.4951</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">B11/C11</f>
+        <v>1.99700200729025</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>41.1365</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">B12/C12</f>
+        <v>2.06295625539363</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>39.9114</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">B13/C13</f>
+        <v>2.12627970955667</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>38.7383</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">B14/C14</f>
+        <v>2.19066918269516</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>38.3561</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">B15/C15</f>
+        <v>2.2124981424076</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>38.2642</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">B16/C16</f>
+        <v>2.21781194955075</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>38.3131</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <f aca="false">B17/C17</f>
+        <v>2.21498129882468</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>37.0476</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <f aca="false">B18/C18</f>
+        <v>2.29064230881353</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="D20" s="1" t="e">
+        <f aca="false">B20/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="D21" s="1" t="e">
+        <f aca="false">B21/C21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="D22" s="1" t="e">
+        <f aca="false">B22/C22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="D23" s="1" t="e">
+        <f aca="false">B23/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>341.723</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <f aca="false">B24/C24</f>
+        <v>3.08375497113159</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f aca="false">B25/C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t xml:space="preserve">Sequential</t>
   </si>
@@ -32,6 +32,15 @@
     <t xml:space="preserve">FF Speedup</t>
   </si>
   <si>
+    <t xml:space="preserve">Sequential trasposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF trasposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF trasposed Speedup</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=1024 Thread=1, Value=339.143273</t>
   </si>
   <si>
@@ -233,116 +242,16 @@
     <t xml:space="preserve">N=10000 Processes=2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">N=10000 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Processes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">N=10000 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Processes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">N=10000 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Processes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">N=10000 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Processes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=32</t>
-    </r>
+    <t xml:space="preserve">N=10000 Processes=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=32</t>
   </si>
 </sst>
 </file>
@@ -352,7 +261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -373,11 +282,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -558,17 +462,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,11 +488,19 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.930957</v>
@@ -597,10 +512,23 @@
         <f aca="false">B2/C2</f>
         <v>0.889217147114448</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.16829</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.272738</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">F2/G2</f>
+        <v>0.617039063130184</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.930957</v>
@@ -612,10 +540,23 @@
         <f aca="false">B3/C3</f>
         <v>1.52121382456702</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.16829</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.200718</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">F3/G3</f>
+        <v>0.838440000398569</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.930957</v>
@@ -627,10 +568,23 @@
         <f aca="false">B4/C4</f>
         <v>2.46074650497062</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.16829</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.151794</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">F4/G4</f>
+        <v>1.10867359711188</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.930957</v>
@@ -642,10 +596,23 @@
         <f aca="false">B5/C5</f>
         <v>3.77903210093039</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.16829</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.134676</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">F5/G5</f>
+        <v>1.2495916124625</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.930957</v>
@@ -657,10 +624,23 @@
         <f aca="false">B6/C6</f>
         <v>5.09538274605103</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.16829</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.139719</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">F6/G6</f>
+        <v>1.20448901008453</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.930957</v>
@@ -672,6 +652,19 @@
         <f aca="false">B7/C7</f>
         <v>2.19391472795144</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.16829</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.250692</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">F7/G7</f>
+        <v>0.671301836516522</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
@@ -683,11 +676,19 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>9.79952</v>
@@ -699,10 +700,23 @@
         <f aca="false">B9/C9</f>
         <v>1.01128045728627</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1.45576</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">F9/G9</f>
+        <v>0.831888498104083</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9.79952</v>
@@ -714,10 +728,23 @@
         <f aca="false">B10/C10</f>
         <v>1.54486637827748</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.839423</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">F10/G10</f>
+        <v>1.44269337390088</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9.79952</v>
@@ -729,10 +756,23 @@
         <f aca="false">B11/C11</f>
         <v>2.6786647568856</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.502963</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">F11/G11</f>
+        <v>2.40779142799769</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9.79952</v>
@@ -744,10 +784,23 @@
         <f aca="false">B12/C12</f>
         <v>3.81224178577264</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.367459</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">F12/G12</f>
+        <v>3.29568741002398</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9.79952</v>
@@ -759,10 +812,23 @@
         <f aca="false">B13/C13</f>
         <v>4.95781602566048</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.302929</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">F13/G13</f>
+        <v>3.99773544295858</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9.79952</v>
@@ -774,10 +840,23 @@
         <f aca="false">B14/C14</f>
         <v>6.14081965158541</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.26466</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">F14/G14</f>
+        <v>4.57579536008464</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9.79952</v>
@@ -789,10 +868,23 @@
         <f aca="false">B15/C15</f>
         <v>7.34227936493665</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.240502</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">F15/G15</f>
+        <v>5.03542590082411</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9.79952</v>
@@ -804,10 +896,23 @@
         <f aca="false">B16/C16</f>
         <v>8.04981270946967</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.233063</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">F16/G16</f>
+        <v>5.19614868082879</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9.79952</v>
@@ -819,10 +924,23 @@
         <f aca="false">B17/C17</f>
         <v>9.2208212578569</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0.224124</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">F17/G17</f>
+        <v>5.40339276471953</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9.79952</v>
@@ -834,10 +952,23 @@
         <f aca="false">B18/C18</f>
         <v>4.58968114204354</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0.350696</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">F18/G18</f>
+        <v>3.45321874215845</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>9.79952</v>
@@ -849,10 +980,23 @@
         <f aca="false">B19/C19</f>
         <v>4.78160650330337</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.349926</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">F19/G19</f>
+        <v>3.46081742997091</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>9.79952</v>
@@ -864,10 +1008,23 @@
         <f aca="false">B20/C20</f>
         <v>5.42299795797524</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0.332986</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">F20/G20</f>
+        <v>3.63687962857297</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>9.79952</v>
@@ -879,10 +1036,23 @@
         <f aca="false">B21/C21</f>
         <v>5.61509503154348</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0.339599</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">F21/G21</f>
+        <v>3.56605879287042</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>9.79952</v>
@@ -894,10 +1064,23 @@
         <f aca="false">B22/C22</f>
         <v>5.97553569033013</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0.335948</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">F22/G22</f>
+        <v>3.60481384023718</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>9.79952</v>
@@ -909,10 +1092,23 @@
         <f aca="false">B23/C23</f>
         <v>6.33109365309076</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0.332417</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">F23/G23</f>
+        <v>3.64310489535734</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>9.79952</v>
@@ -924,10 +1120,23 @@
         <f aca="false">B24/C24</f>
         <v>6.94577775257644</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0.336431</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">F24/G24</f>
+        <v>3.5996385588724</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>9.79952</v>
@@ -939,6 +1148,19 @@
         <f aca="false">B25/C25</f>
         <v>4.02450964286888</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0.470867</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">F25/G25</f>
+        <v>2.57191521172645</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
@@ -950,11 +1172,19 @@
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>84.8628</v>
@@ -966,11 +1196,23 @@
         <f aca="false">B27/C27</f>
         <v>1.10448390573022</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>15.3747</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">F27/G27</f>
+        <v>0.921611478597956</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>84.8628</v>
@@ -982,11 +1224,23 @@
         <f aca="false">B28/C28</f>
         <v>1.3421626990403</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>8.70307</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">F28/G28</f>
+        <v>1.62810364618462</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>84.8628</v>
@@ -998,11 +1252,23 @@
         <f aca="false">B29/C29</f>
         <v>2.06600480088032</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>5.36398</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">F29/G29</f>
+        <v>2.64160194482455</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>84.8628</v>
@@ -1014,11 +1280,23 @@
         <f aca="false">B30/C30</f>
         <v>2.87905712802663</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>4.3659</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">F30/G30</f>
+        <v>3.24549348358872</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>84.8628</v>
@@ -1030,11 +1308,23 @@
         <f aca="false">B31/C31</f>
         <v>3.77693413504119</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>3.6124</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">F31/G31</f>
+        <v>3.9224615214262</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>84.8628</v>
@@ -1046,11 +1336,23 @@
         <f aca="false">B32/C32</f>
         <v>4.65555208110466</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>2.84268</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <f aca="false">F32/G32</f>
+        <v>4.98455682665654</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>84.8628</v>
@@ -1062,11 +1364,23 @@
         <f aca="false">B33/C33</f>
         <v>5.55693939691582</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>2.54369</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">F33/G33</f>
+        <v>5.57045080178795</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>84.8628</v>
@@ -1078,11 +1392,23 @@
         <f aca="false">B34/C34</f>
         <v>6.40899616348971</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>2.37174</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">F34/G34</f>
+        <v>5.97430578393922</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>84.8628</v>
@@ -1094,11 +1420,23 @@
         <f aca="false">B35/C35</f>
         <v>7.27561728395062</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>2.34012</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">F35/G35</f>
+        <v>6.05503136591286</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>84.8628</v>
@@ -1110,101 +1448,191 @@
         <f aca="false">B36/C36</f>
         <v>4.04906816294982</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>2.85323</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">F36/G36</f>
+        <v>4.96612610970724</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>20.8731</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">B37/C37</f>
         <v>4.0656538798741</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>2.80334</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">F37/G37</f>
+        <v>5.05450641021068</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>19.3388</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">B38/C38</f>
         <v>4.3882143669721</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>2.80937</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">F38/G38</f>
+        <v>5.04365747480752</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>17.8389</v>
       </c>
       <c r="D39" s="1" t="n">
         <f aca="false">B39/C39</f>
         <v>4.75717673174916</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>2.81124</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">F39/G39</f>
+        <v>5.04030249996443</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>16.7305</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">B40/C40</f>
         <v>5.07234093422193</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>2.70919</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">F40/G40</f>
+        <v>5.23016104444502</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>15.7138</v>
       </c>
       <c r="D41" s="1" t="n">
         <f aca="false">B41/C41</f>
         <v>5.40052692537769</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>2.61622</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">F41/G41</f>
+        <v>5.41602005947512</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>14.8194</v>
       </c>
       <c r="D42" s="1" t="n">
         <f aca="false">B42/C42</f>
         <v>5.72646665856917</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>2.62219</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <f aca="false">F42/G42</f>
+        <v>5.40368928262254</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>84.8628</v>
@@ -1216,7 +1644,19 @@
         <f aca="false">B43/C43</f>
         <v>3.90191732953239</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>4.57889</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <f aca="false">F43/G43</f>
+        <v>3.09452727626128</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
@@ -1228,11 +1668,19 @@
       <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>1053.79</v>
@@ -1244,10 +1692,23 @@
         <f aca="false">B45/C45</f>
         <v>0.926971085757514</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>222.094</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <f aca="false">F45/G45</f>
+        <v>0.968598881554657</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>1053.79</v>
@@ -1259,10 +1720,23 @@
         <f aca="false">B46/C46</f>
         <v>1.3759115271875</v>
       </c>
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>124.81</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <f aca="false">F46/G46</f>
+        <v>1.72357984135887</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1053.79</v>
@@ -1274,10 +1748,23 @@
         <f aca="false">B47/C47</f>
         <v>1.91413380899532</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>79.8601</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <f aca="false">F47/G47</f>
+        <v>2.69371062645802</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>1053.79</v>
@@ -1289,10 +1776,23 @@
         <f aca="false">B48/C48</f>
         <v>2.65404192408532</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>56.9705</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">F48/G48</f>
+        <v>3.77598932781001</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>1053.79</v>
@@ -1304,11 +1804,23 @@
         <f aca="false">B49/C49</f>
         <v>4.61302410282002</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>36.6963</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <f aca="false">F49/G49</f>
+        <v>5.86217139057616</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1053.79</v>
@@ -1319,6 +1831,19 @@
       <c r="D50" s="1" t="n">
         <f aca="false">B50/C50</f>
         <v>3.84464397120685</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>62.1799</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <f aca="false">F50/G50</f>
+        <v>3.45963888652121</v>
       </c>
     </row>
   </sheetData>
@@ -1339,34 +1864,33 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>84.8628</v>
@@ -1383,7 +1907,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>84.8628</v>
@@ -1400,7 +1924,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>84.8628</v>
@@ -1417,7 +1941,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>84.8628</v>
@@ -1434,7 +1958,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>84.8628</v>
@@ -1451,7 +1975,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>84.8628</v>
@@ -1468,7 +1992,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>84.8628</v>
@@ -1485,7 +2009,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>84.8628</v>
@@ -1502,7 +2026,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>84.8628</v>
@@ -1519,7 +2043,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>84.8628</v>
@@ -1536,12 +2060,12 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>41.1365</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -1552,12 +2076,12 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>39.9114</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -1568,12 +2092,12 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>38.7383</v>
       </c>
       <c r="D14" s="1" t="n">
@@ -1584,12 +2108,12 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>38.3561</v>
       </c>
       <c r="D15" s="1" t="n">
@@ -1600,12 +2124,12 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>38.2642</v>
       </c>
       <c r="D16" s="1" t="n">
@@ -1616,12 +2140,12 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>84.8628</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>38.3131</v>
       </c>
       <c r="D17" s="1" t="n">
@@ -1632,7 +2156,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>84.8628</v>
@@ -1648,22 +2172,21 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1053.79</v>
@@ -1676,7 +2199,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1053.79</v>
@@ -1689,7 +2212,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1053.79</v>
@@ -1702,7 +2225,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1053.79</v>
@@ -1715,7 +2238,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1053.79</v>
@@ -1732,7 +2255,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1053.79</v>

--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
   <si>
     <t xml:space="preserve">Sequential</t>
   </si>
@@ -464,8 +464,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1862,10 +1862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1873,6 +1873,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,8 +1889,15 @@
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1902,8 +1913,19 @@
         <f aca="false">B2/C2</f>
         <v>1.04210782255034</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>14.8103</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">F2/G2</f>
+        <v>0.956732814325166</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1919,8 +1941,19 @@
         <f aca="false">B3/C3</f>
         <v>0.916436017360522</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>12.832</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">F3/G3</f>
+        <v>1.1042316084788</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1936,8 +1969,19 @@
         <f aca="false">B4/C4</f>
         <v>1.59497653473367</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>12.5824</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">F4/G4</f>
+        <v>1.12613650813835</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1953,8 +1997,19 @@
         <f aca="false">B5/C5</f>
         <v>2.12058922748229</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>12.924</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">F5/G5</f>
+        <v>1.09637109254101</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1970,8 +2025,19 @@
         <f aca="false">B6/C6</f>
         <v>2.43027578109339</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>13.5934</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">F6/G6</f>
+        <v>1.04238086130034</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1987,8 +2053,19 @@
         <f aca="false">B7/C7</f>
         <v>2.67011091009203</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>14.271</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">F7/G7</f>
+        <v>0.992887674304534</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2004,8 +2081,19 @@
         <f aca="false">B8/C8</f>
         <v>2.88423342283248</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>14.8464</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">F8/G8</f>
+        <v>0.954406455437008</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -2021,8 +2109,19 @@
         <f aca="false">B9/C9</f>
         <v>3.09441557731226</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>14.9761</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">F9/G9</f>
+        <v>0.946140851089402</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2038,8 +2137,19 @@
         <f aca="false">B10/C10</f>
         <v>3.31632629135501</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>14.4665</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">F10/G10</f>
+        <v>0.979469809560018</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -2055,8 +2165,19 @@
         <f aca="false">B11/C11</f>
         <v>1.99700200729025</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>18.2163</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">F11/G11</f>
+        <v>0.777847312571708</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2072,7 +2193,19 @@
         <f aca="false">B12/C12</f>
         <v>2.06295625539363</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>19.2999</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">F12/G12</f>
+        <v>0.734174788470407</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2088,7 +2221,19 @@
         <f aca="false">B13/C13</f>
         <v>2.12627970955667</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>20.3615</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">F13/G13</f>
+        <v>0.695896667730766</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2104,7 +2249,19 @@
         <f aca="false">B14/C14</f>
         <v>2.19066918269516</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>20.5906</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">F14/G14</f>
+        <v>0.688153817761503</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -2120,7 +2277,19 @@
         <f aca="false">B15/C15</f>
         <v>2.2124981424076</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>21.0554</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">F15/G15</f>
+        <v>0.672962755397665</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -2136,7 +2305,19 @@
         <f aca="false">B16/C16</f>
         <v>2.21781194955075</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>22.1251</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">F16/G16</f>
+        <v>0.640426483948095</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -2152,7 +2333,19 @@
         <f aca="false">B17/C17</f>
         <v>2.21498129882468</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>23.901</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">F17/G17</f>
+        <v>0.592841303711142</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -2168,8 +2361,19 @@
         <f aca="false">B18/C18</f>
         <v>2.29064230881353</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>23.4008</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">F18/G18</f>
+        <v>0.605513486718403</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
@@ -2181,8 +2385,15 @@
       <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -2195,7 +2406,19 @@
         <f aca="false">B20/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>205.849</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">F20/G20</f>
+        <v>1.04503786756312</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -2208,7 +2431,19 @@
         <f aca="false">B21/C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>157.998</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">F21/G21</f>
+        <v>1.36153622197749</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -2221,7 +2456,19 @@
         <f aca="false">B22/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>126.601</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">F22/G22</f>
+        <v>1.69919668880973</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -2234,7 +2481,19 @@
         <f aca="false">B23/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>127.184</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">F23/G23</f>
+        <v>1.69140772424204</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -2250,8 +2509,19 @@
         <f aca="false">B24/C24</f>
         <v>3.08375497113159</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>120.512</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">F24/G24</f>
+        <v>1.78505045140733</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -2264,7 +2534,19 @@
         <f aca="false">B25/C25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>173.836</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">F25/G25</f>
+        <v>1.23748820727582</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="103">
+  <si>
+    <t xml:space="preserve">N=1024</t>
+  </si>
   <si>
     <t xml:space="preserve">Sequential</t>
   </si>
@@ -50,15 +53,51 @@
     <t xml:space="preserve">N=1024 Thread=4</t>
   </si>
   <si>
+    <t xml:space="preserve">N=1024 Thread=6</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=1024 Thread=8</t>
   </si>
   <si>
+    <t xml:space="preserve">N=1024 Thread=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=14</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=1024 Thread=16</t>
   </si>
   <si>
+    <t xml:space="preserve">N=1024 Thread=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1024 Thread=30</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=1024 Thread=32</t>
   </si>
   <si>
+    <t xml:space="preserve">N=2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=2000 Thread=1, Value=664.252208</t>
   </si>
   <si>
@@ -110,6 +149,9 @@
     <t xml:space="preserve">N=2000 Thread=32</t>
   </si>
   <si>
+    <t xml:space="preserve">N=4000</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=4000 Thread=1, Value=1330.687030</t>
   </si>
   <si>
@@ -161,6 +203,9 @@
     <t xml:space="preserve">N=4000 Thread=32</t>
   </si>
   <si>
+    <t xml:space="preserve">N=10000</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=10000 Thread=1, Value=3330.381017</t>
   </si>
   <si>
@@ -170,10 +215,43 @@
     <t xml:space="preserve">N=10000 Thread=4</t>
   </si>
   <si>
+    <t xml:space="preserve">N=10000 Thread=6</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=10000 Thread=8</t>
   </si>
   <si>
+    <t xml:space="preserve">N=10000 Thread=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=14</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=10000 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Thread=30</t>
   </si>
   <si>
     <t xml:space="preserve">N=10000 Thread=32</t>
@@ -261,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,6 +360,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,7 +441,1025 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Parallel speedup with FastFlow</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Parallel!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Parallel!$I$9:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Parallel!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.639640290230748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.897910619771214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12448967319039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.18606798271889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2495916124625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25070602574393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26293591889113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.30711694848115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.26384643691282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91458974163886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.880818168019638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.884707787257979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.885238313160483</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.898989845031223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.867715755932064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.824098603894991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.671301836516522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Parallel!$A$19:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Parallel!$I$9:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Parallel!$H$20:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.831888498104083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44269337390088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.40779142799769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.29568741002398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.99773544295858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.57579536008464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.03542590082411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.19614868082879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.40339276471953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.45321874215845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.46081742997091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.63687962857297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.56605879287042</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.60481384023718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.64310489535734</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5996385588724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.57191521172645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Parallel!$A$37:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Parallel!$I$9:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Parallel!$H$38:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.921611478597956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.62810364618462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.64160194482455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.24549348358872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9224615214262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.98455682665654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.57045080178795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.97430578393922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.05503136591286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96612610970724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.05450641021068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.04365747480752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.04030249996443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.23016104444502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.41602005947512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.40368928262254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.09452727626128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Parallel!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Parallel!$I$9:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Parallel!$H$56:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.968598881554657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.72357984135887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.91072443374016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38065177180915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81617367918738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.64248024809387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.43171970791124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.94328024201904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.80675637374651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8273014505242</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.00338412230288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.96413967527253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.96315471328968</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2299403876263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.49327640536662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.63241624163464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.65081062183596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="53417320"/>
+        <c:axId val="38709380"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53417320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38709380"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38709380"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53417320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12143520" y="1329120"/>
+        <a:ext cx="5755320" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,10 +1573,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S14" activeCellId="0" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,28 +1590,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.930957</v>
@@ -513,22 +1627,22 @@
         <v>0.889217147114448</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.16829</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.272738</v>
+        <v>0.263101</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">F2/G2</f>
-        <v>0.617039063130184</v>
+        <v>0.639640290230748</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.930957</v>
@@ -541,22 +1655,22 @@
         <v>1.52121382456702</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.16829</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.200718</v>
+        <v>0.187424</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">F3/G3</f>
-        <v>0.838440000398569</v>
+        <v>0.897910619771214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.930957</v>
@@ -569,1282 +1683,1786 @@
         <v>2.46074650497062</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.16829</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.151794</v>
+        <v>0.149659</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">F4/G4</f>
-        <v>1.10867359711188</v>
+        <v>1.12448967319039</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0.930957</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0.246348</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">B5/C5</f>
-        <v>3.77903210093039</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" s="0"/>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>0.134676</v>
+      <c r="G5" s="0" t="n">
+        <v>0.141889</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">F5/G5</f>
-        <v>1.2495916124625</v>
+        <v>1.18606798271889</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.930957</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.182706</v>
+        <v>0.246348</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">B6/C6</f>
-        <v>5.09538274605103</v>
+        <v>3.77903210093039</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.16829</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.139719</v>
+        <v>0.134676</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">F6/G6</f>
-        <v>1.20448901008453</v>
+        <v>1.2495916124625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>0.930957</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0.424336</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">B7/C7</f>
-        <v>2.19391472795144</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7" s="0"/>
       <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>0.250692</v>
+      <c r="G7" s="0" t="n">
+        <v>0.134556</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">F7/G7</f>
-        <v>0.671301836516522</v>
+        <v>1.25070602574393</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.16829</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.133253</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">F8/G8</f>
+        <v>1.26293591889113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>9.69021</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">B9/C9</f>
-        <v>1.01128045728627</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9" s="0"/>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>1.45576</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.128749</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">F9/G9</f>
-        <v>0.831888498104083</v>
+        <v>1.30711694848115</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>9.79952</v>
+        <v>0.930957</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>6.34328</v>
+        <v>0.182706</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">B10/C10</f>
-        <v>1.54486637827748</v>
+        <v>5.09538274605103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1.21103</v>
+        <v>0.16829</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.839423</v>
+        <v>0.133157</v>
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">F10/G10</f>
-        <v>1.44269337390088</v>
+        <v>1.26384643691282</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>3.65836</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">B11/C11</f>
-        <v>2.6786647568856</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B11" s="0"/>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.502963</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.184006</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">F11/G11</f>
-        <v>2.40779142799769</v>
+        <v>0.91458974163886</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>2.57054</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">B12/C12</f>
-        <v>3.81224178577264</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12" s="0"/>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.367459</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.191061</v>
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">F12/G12</f>
-        <v>3.29568741002398</v>
+        <v>0.880818168019638</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>1.97658</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">B13/C13</f>
-        <v>4.95781602566048</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B13" s="0"/>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.302929</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.190221</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">F13/G13</f>
-        <v>3.99773544295858</v>
+        <v>0.884707787257979</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>1.5958</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">B14/C14</f>
-        <v>6.14081965158541</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B14" s="0"/>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.26466</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.190107</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">F14/G14</f>
-        <v>4.57579536008464</v>
+        <v>0.885238313160483</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>1.33467</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">B15/C15</f>
-        <v>7.34227936493665</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B15" s="0"/>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>0.240502</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.187199</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">F15/G15</f>
-        <v>5.03542590082411</v>
+        <v>0.898989845031223</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1.21736</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">B16/C16</f>
-        <v>8.04981270946967</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B16" s="0"/>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>0.233063</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.193946</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">F16/G16</f>
-        <v>5.19614868082879</v>
+        <v>0.867715755932064</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1.06276</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">B17/C17</f>
-        <v>9.2208212578569</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B17" s="0"/>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>0.224124</v>
+        <v>0.16829</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.204211</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">F17/G17</f>
-        <v>5.40339276471953</v>
+        <v>0.824098603894991</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
+      <c r="A18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>9.79952</v>
+        <v>0.930957</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>2.13512</v>
+        <v>0.424336</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">B18/C18</f>
-        <v>4.58968114204354</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>1.21103</v>
+        <v>2.19391472795144</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.16829</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0.350696</v>
+        <v>0.250692</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">F18/G18</f>
-        <v>3.45321874215845</v>
+        <v>0.671301836516522</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>9.79952</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>2.04942</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">B19/C19</f>
-        <v>4.78160650330337</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>1.21103</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>0.349926</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">F19/G19</f>
-        <v>3.46081742997091</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>1.80703</v>
+        <v>9.69021</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">B20/C20</f>
-        <v>5.42299795797524</v>
+        <v>1.01128045728627</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1.21103</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.332986</v>
+        <v>1.45576</v>
       </c>
       <c r="H20" s="1" t="n">
         <f aca="false">F20/G20</f>
-        <v>3.63687962857297</v>
+        <v>0.831888498104083</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>1.74521</v>
+        <v>6.34328</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">B21/C21</f>
-        <v>5.61509503154348</v>
+        <v>1.54486637827748</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>1.21103</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.339599</v>
+        <v>0.839423</v>
       </c>
       <c r="H21" s="1" t="n">
         <f aca="false">F21/G21</f>
-        <v>3.56605879287042</v>
+        <v>1.44269337390088</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>1.63994</v>
+        <v>3.65836</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">B22/C22</f>
-        <v>5.97553569033013</v>
+        <v>2.6786647568856</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>1.21103</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.335948</v>
+        <v>0.502963</v>
       </c>
       <c r="H22" s="1" t="n">
         <f aca="false">F22/G22</f>
-        <v>3.60481384023718</v>
+        <v>2.40779142799769</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>1.54784</v>
+        <v>2.57054</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">B23/C23</f>
-        <v>6.33109365309076</v>
+        <v>3.81224178577264</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>1.21103</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.332417</v>
+        <v>0.367459</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">F23/G23</f>
-        <v>3.64310489535734</v>
+        <v>3.29568741002398</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>1.41086</v>
+        <v>1.97658</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">B24/C24</f>
-        <v>6.94577775257644</v>
+        <v>4.95781602566048</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>1.21103</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.336431</v>
+        <v>0.302929</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">F24/G24</f>
-        <v>3.5996385588724</v>
+        <v>3.99773544295858</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>9.79952</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>2.43496</v>
+        <v>1.5958</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">B25/C25</f>
-        <v>4.02450964286888</v>
+        <v>6.14081965158541</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>1.21103</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.470867</v>
+        <v>0.26466</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">F25/G25</f>
-        <v>2.57191521172645</v>
+        <v>4.57579536008464</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>5</v>
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>9.79952</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1.33467</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">B26/C26</f>
+        <v>7.34227936493665</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1.21103</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0.240502</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">F26/G26</f>
+        <v>5.03542590082411</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>76.8348</v>
+        <v>1.21736</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">B27/C27</f>
-        <v>1.10448390573022</v>
+        <v>8.04981270946967</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>15.3747</v>
+        <v>0.233063</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">F27/G27</f>
-        <v>0.921611478597956</v>
+        <v>5.19614868082879</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>63.2284</v>
+        <v>1.06276</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">B28/C28</f>
-        <v>1.3421626990403</v>
+        <v>9.2208212578569</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>8.70307</v>
+        <v>0.224124</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">F28/G28</f>
-        <v>1.62810364618462</v>
+        <v>5.40339276471953</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
+      <c r="A29" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>41.0758</v>
+        <v>2.13512</v>
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">B29/C29</f>
-        <v>2.06600480088032</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>4.58968114204354</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>5.36398</v>
+        <v>0.350696</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">F29/G29</f>
-        <v>2.64160194482455</v>
+        <v>3.45321874215845</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
+      <c r="A30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>29.4759</v>
+        <v>2.04942</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">B30/C30</f>
-        <v>2.87905712802663</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>32</v>
+        <v>4.78160650330337</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>4.3659</v>
+        <v>0.349926</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">F30/G30</f>
-        <v>3.24549348358872</v>
+        <v>3.46081742997091</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>22.4687</v>
+        <v>1.80703</v>
       </c>
       <c r="D31" s="1" t="n">
         <f aca="false">B31/C31</f>
-        <v>3.77693413504119</v>
+        <v>5.42299795797524</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>3.6124</v>
+        <v>0.332986</v>
       </c>
       <c r="H31" s="1" t="n">
         <f aca="false">F31/G31</f>
-        <v>3.9224615214262</v>
+        <v>3.63687962857297</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>18.2283</v>
+        <v>1.74521</v>
       </c>
       <c r="D32" s="1" t="n">
         <f aca="false">B32/C32</f>
-        <v>4.65555208110466</v>
+        <v>5.61509503154348</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>2.84268</v>
+        <v>0.339599</v>
       </c>
       <c r="H32" s="1" t="n">
         <f aca="false">F32/G32</f>
-        <v>4.98455682665654</v>
+        <v>3.56605879287042</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>15.2715</v>
+        <v>1.63994</v>
       </c>
       <c r="D33" s="1" t="n">
         <f aca="false">B33/C33</f>
-        <v>5.55693939691582</v>
+        <v>5.97553569033013</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>2.54369</v>
+        <v>0.335948</v>
       </c>
       <c r="H33" s="1" t="n">
         <f aca="false">F33/G33</f>
-        <v>5.57045080178795</v>
+        <v>3.60481384023718</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>13.2412</v>
+        <v>1.54784</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">B34/C34</f>
-        <v>6.40899616348971</v>
+        <v>6.33109365309076</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>2.37174</v>
+        <v>0.332417</v>
       </c>
       <c r="H34" s="1" t="n">
         <f aca="false">F34/G34</f>
-        <v>5.97430578393922</v>
+        <v>3.64310489535734</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>11.664</v>
+        <v>1.41086</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">B35/C35</f>
-        <v>7.27561728395062</v>
+        <v>6.94577775257644</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>2.34012</v>
+        <v>0.336431</v>
       </c>
       <c r="H35" s="1" t="n">
         <f aca="false">F35/G35</f>
-        <v>6.05503136591286</v>
+        <v>3.5996385588724</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>84.8628</v>
+        <v>9.79952</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>20.9586</v>
+        <v>2.43496</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">B36/C36</f>
-        <v>4.04906816294982</v>
+        <v>4.02450964286888</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>14.1695</v>
+        <v>1.21103</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>2.85323</v>
+        <v>0.470867</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">F36/G36</f>
-        <v>4.96612610970724</v>
+        <v>2.57191521172645</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>84.8628</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>20.8731</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <f aca="false">B37/C37</f>
-        <v>4.0656538798741</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>14.1695</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>2.80334</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">F37/G37</f>
-        <v>5.05450641021068</v>
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>19.3388</v>
+        <v>76.8348</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">B38/C38</f>
-        <v>4.3882143669721</v>
+        <v>1.10448390573022</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>14.1695</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>2.80937</v>
+        <v>15.3747</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">F38/G38</f>
-        <v>5.04365747480752</v>
+        <v>0.921611478597956</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>17.8389</v>
+        <v>63.2284</v>
       </c>
       <c r="D39" s="1" t="n">
         <f aca="false">B39/C39</f>
-        <v>4.75717673174916</v>
+        <v>1.3421626990403</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>14.1695</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>2.81124</v>
+        <v>8.70307</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">F39/G39</f>
-        <v>5.04030249996443</v>
+        <v>1.62810364618462</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>16.7305</v>
+        <v>41.0758</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">B40/C40</f>
-        <v>5.07234093422193</v>
+        <v>2.06600480088032</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>14.1695</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>2.70919</v>
+        <v>5.36398</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">F40/G40</f>
-        <v>5.23016104444502</v>
+        <v>2.64160194482455</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
+      <c r="A41" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>15.7138</v>
+        <v>29.4759</v>
       </c>
       <c r="D41" s="1" t="n">
         <f aca="false">B41/C41</f>
-        <v>5.40052692537769</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>2.87905712802663</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>14.1695</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>2.61622</v>
+        <v>4.3659</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">F41/G41</f>
-        <v>5.41602005947512</v>
+        <v>3.24549348358872</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>14.8194</v>
+        <v>22.4687</v>
       </c>
       <c r="D42" s="1" t="n">
         <f aca="false">B42/C42</f>
-        <v>5.72646665856917</v>
+        <v>3.77693413504119</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>14.1695</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>2.62219</v>
+        <v>3.6124</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">F42/G42</f>
-        <v>5.40368928262254</v>
+        <v>3.9224615214262</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>84.8628</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>21.749</v>
+        <v>18.2283</v>
       </c>
       <c r="D43" s="1" t="n">
         <f aca="false">B43/C43</f>
-        <v>3.90191732953239</v>
+        <v>4.65555208110466</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>14.1695</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>4.57889</v>
+        <v>2.84268</v>
       </c>
       <c r="H43" s="1" t="n">
         <f aca="false">F43/G43</f>
-        <v>3.09452727626128</v>
+        <v>4.98455682665654</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>5</v>
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>15.2715</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <f aca="false">B44/C44</f>
+        <v>5.55693939691582</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>2.54369</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <f aca="false">F44/G44</f>
+        <v>5.57045080178795</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>1136.81</v>
+        <v>13.2412</v>
       </c>
       <c r="D45" s="1" t="n">
         <f aca="false">B45/C45</f>
-        <v>0.926971085757514</v>
+        <v>6.40899616348971</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>215.12</v>
+        <v>14.1695</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>222.094</v>
+        <v>2.37174</v>
       </c>
       <c r="H45" s="1" t="n">
         <f aca="false">F45/G45</f>
-        <v>0.968598881554657</v>
+        <v>5.97430578393922</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>765.885</v>
+        <v>11.664</v>
       </c>
       <c r="D46" s="1" t="n">
         <f aca="false">B46/C46</f>
-        <v>1.3759115271875</v>
+        <v>7.27561728395062</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>215.12</v>
+        <v>14.1695</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>124.81</v>
+        <v>2.34012</v>
       </c>
       <c r="H46" s="1" t="n">
         <f aca="false">F46/G46</f>
-        <v>1.72357984135887</v>
+        <v>6.05503136591286</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>550.531</v>
+        <v>20.9586</v>
       </c>
       <c r="D47" s="1" t="n">
         <f aca="false">B47/C47</f>
-        <v>1.91413380899532</v>
+        <v>4.04906816294982</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>215.12</v>
+        <v>14.1695</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>79.8601</v>
+        <v>2.85323</v>
       </c>
       <c r="H47" s="1" t="n">
         <f aca="false">F47/G47</f>
-        <v>2.69371062645802</v>
+        <v>4.96612610970724</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>397.051</v>
+        <v>20.8731</v>
       </c>
       <c r="D48" s="1" t="n">
         <f aca="false">B48/C48</f>
-        <v>2.65404192408532</v>
+        <v>4.0656538798741</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>215.12</v>
+        <v>14.1695</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>56.9705</v>
+        <v>2.80334</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">F48/G48</f>
-        <v>3.77598932781001</v>
+        <v>5.05450641021068</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>228.438</v>
+        <v>19.3388</v>
       </c>
       <c r="D49" s="1" t="n">
         <f aca="false">B49/C49</f>
-        <v>4.61302410282002</v>
+        <v>4.3882143669721</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>215.12</v>
+        <v>14.1695</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>36.6963</v>
+        <v>2.80937</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">F49/G49</f>
-        <v>5.86217139057616</v>
+        <v>5.04365747480752</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1053.79</v>
+        <v>84.8628</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>274.093</v>
+        <v>17.8389</v>
       </c>
       <c r="D50" s="1" t="n">
         <f aca="false">B50/C50</f>
-        <v>3.84464397120685</v>
+        <v>4.75717673174916</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>215.12</v>
+        <v>14.1695</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>62.1799</v>
+        <v>2.81124</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">F50/G50</f>
-        <v>3.45963888652121</v>
-      </c>
+        <v>5.04030249996443</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>16.7305</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <f aca="false">B51/C51</f>
+        <v>5.07234093422193</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>2.70919</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">F51/G51</f>
+        <v>5.23016104444502</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>15.7138</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <f aca="false">B52/C52</f>
+        <v>5.40052692537769</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>2.61622</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">F52/G52</f>
+        <v>5.41602005947512</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>14.8194</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <f aca="false">B53/C53</f>
+        <v>5.72646665856917</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>2.62219</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">F53/G53</f>
+        <v>5.40368928262254</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>84.8628</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>21.749</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <f aca="false">B54/C54</f>
+        <v>3.90191732953239</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>14.1695</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>4.57889</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">F54/G54</f>
+        <v>3.09452727626128</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1136.81</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <f aca="false">B56/C56</f>
+        <v>0.926971085757514</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>222.094</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <f aca="false">F56/G56</f>
+        <v>0.968598881554657</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>765.885</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <f aca="false">B57/C57</f>
+        <v>1.3759115271875</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>124.81</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <f aca="false">F57/G57</f>
+        <v>1.72357984135887</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>550.531</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <f aca="false">B58/C58</f>
+        <v>1.91413380899532</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>73.906</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <f aca="false">F58/G58</f>
+        <v>2.91072443374016</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="0"/>
+      <c r="E59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>63.6327</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <f aca="false">F59/G59</f>
+        <v>3.38065177180915</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>397.051</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <f aca="false">B60/C60</f>
+        <v>2.65404192408532</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>56.3706</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <f aca="false">F60/G60</f>
+        <v>3.81617367918738</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="0"/>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>46.3373</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <f aca="false">F61/G61</f>
+        <v>4.64248024809387</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="0"/>
+      <c r="E62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>39.6044</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <f aca="false">F62/G62</f>
+        <v>5.43171970791124</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>36.1955</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <f aca="false">F63/G63</f>
+        <v>5.94328024201904</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>228.438</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <f aca="false">B64/C64</f>
+        <v>4.61302410282002</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>37.0465</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <f aca="false">F64/G64</f>
+        <v>5.80675637374651</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>44.5632</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <f aca="false">F65/G65</f>
+        <v>4.8273014505242</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>42.9949</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <f aca="false">F66/G66</f>
+        <v>5.00338412230288</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>43.3348</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <f aca="false">F67/G67</f>
+        <v>4.96413967527253</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>43.3434</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <f aca="false">F68/G68</f>
+        <v>4.96315471328968</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>41.1324</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <f aca="false">F69/G69</f>
+        <v>5.2299403876263</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>39.1606</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <f aca="false">F70/G70</f>
+        <v>5.49327640536662</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>38.1932</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <f aca="false">F71/G71</f>
+        <v>5.63241624163464</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1053.79</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>274.093</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <f aca="false">B72/C72</f>
+        <v>3.84464397120685</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>58.9239</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <f aca="false">F72/G72</f>
+        <v>3.65081062183596</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
+      <c r="B78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+      <c r="G78" s="0"/>
+      <c r="H78" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1854,6 +3472,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1864,7 +3483,7 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1881,27 +3500,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>84.8628</v>
@@ -1914,7 +3533,7 @@
         <v>1.04210782255034</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>14.1695</v>
@@ -1929,7 +3548,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>84.8628</v>
@@ -1942,7 +3561,7 @@
         <v>0.916436017360522</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>14.1695</v>
@@ -1957,7 +3576,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>84.8628</v>
@@ -1970,7 +3589,7 @@
         <v>1.59497653473367</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>14.1695</v>
@@ -1985,7 +3604,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>84.8628</v>
@@ -1998,7 +3617,7 @@
         <v>2.12058922748229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>14.1695</v>
@@ -2013,7 +3632,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>84.8628</v>
@@ -2026,7 +3645,7 @@
         <v>2.43027578109339</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>14.1695</v>
@@ -2041,7 +3660,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>84.8628</v>
@@ -2054,7 +3673,7 @@
         <v>2.67011091009203</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>14.1695</v>
@@ -2069,7 +3688,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>84.8628</v>
@@ -2082,7 +3701,7 @@
         <v>2.88423342283248</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>14.1695</v>
@@ -2097,7 +3716,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>84.8628</v>
@@ -2110,7 +3729,7 @@
         <v>3.09441557731226</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>14.1695</v>
@@ -2125,7 +3744,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>84.8628</v>
@@ -2138,7 +3757,7 @@
         <v>3.31632629135501</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>14.1695</v>
@@ -2153,7 +3772,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>84.8628</v>
@@ -2166,7 +3785,7 @@
         <v>1.99700200729025</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>14.1695</v>
@@ -2181,7 +3800,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>84.8628</v>
@@ -2194,7 +3813,7 @@
         <v>2.06295625539363</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>14.1695</v>
@@ -2209,7 +3828,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>84.8628</v>
@@ -2222,7 +3841,7 @@
         <v>2.12627970955667</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>14.1695</v>
@@ -2237,7 +3856,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>84.8628</v>
@@ -2250,7 +3869,7 @@
         <v>2.19066918269516</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>14.1695</v>
@@ -2265,7 +3884,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>84.8628</v>
@@ -2278,7 +3897,7 @@
         <v>2.2124981424076</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>14.1695</v>
@@ -2293,7 +3912,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>84.8628</v>
@@ -2306,7 +3925,7 @@
         <v>2.21781194955075</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>14.1695</v>
@@ -2321,7 +3940,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>84.8628</v>
@@ -2334,7 +3953,7 @@
         <v>2.21498129882468</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>14.1695</v>
@@ -2349,7 +3968,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>84.8628</v>
@@ -2362,7 +3981,7 @@
         <v>2.29064230881353</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>14.1695</v>
@@ -2377,27 +3996,27 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1053.79</v>
@@ -2407,7 +4026,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>215.12</v>
@@ -2422,7 +4041,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1053.79</v>
@@ -2432,7 +4051,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>215.12</v>
@@ -2447,7 +4066,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1053.79</v>
@@ -2457,7 +4076,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>215.12</v>
@@ -2472,7 +4091,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1053.79</v>
@@ -2482,7 +4101,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>215.12</v>
@@ -2497,7 +4116,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1053.79</v>
@@ -2510,7 +4129,7 @@
         <v>3.08375497113159</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>215.12</v>
@@ -2525,7 +4144,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1053.79</v>
@@ -2535,7 +4154,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>215.12</v>

--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="114">
   <si>
     <t xml:space="preserve">N=1024</t>
   </si>
@@ -326,10 +326,43 @@
     <t xml:space="preserve">N=10000 Processes=8</t>
   </si>
   <si>
+    <t xml:space="preserve">N=10000 Processes=6</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=10000 Processes=16</t>
   </si>
   <si>
     <t xml:space="preserve">N=10000 Processes=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=30</t>
   </si>
 </sst>
 </file>
@@ -363,16 +396,19 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -517,12 +553,20 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Parallel speedup with FastFlow</a:t>
             </a:r>
@@ -577,11 +621,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -751,11 +800,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -925,11 +979,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1099,11 +1158,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1246,11 +1310,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="53417320"/>
-        <c:axId val="38709380"/>
+        <c:axId val="61322056"/>
+        <c:axId val="8135497"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53417320"/>
+        <c:axId val="61322056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,12 +1328,20 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
                   <a:t>Number of threads</a:t>
                 </a:r>
@@ -1284,7 +1356,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1301,12 +1373,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38709380"/>
+        <c:crossAx val="8135497"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38709380"/>
+        <c:axId val="8135497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,12 +1413,20 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
                   <a:t>Speedup</a:t>
                 </a:r>
@@ -1357,7 +1441,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1374,12 +1458,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53417320"/>
+        <c:crossAx val="61322056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1407,7 +1495,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1438,9 +1530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>175680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1449,7 +1541,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12143520" y="1329120"/>
-        <a:ext cx="5755320" cy="3241800"/>
+        <a:ext cx="5754960" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1573,9 +1665,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S14" activeCellId="0" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -1700,14 +1792,13 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0"/>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.141889</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -1747,14 +1838,13 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0"/>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>0.134556</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -1766,14 +1856,13 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0"/>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.133253</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -1785,21 +1874,20 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0"/>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.128749</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">F9/G9</f>
         <v>1.30711694848115</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1830,7 +1918,7 @@
         <f aca="false">F10/G10</f>
         <v>1.26384643691282</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1838,21 +1926,20 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0"/>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>0.184006</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">F11/G11</f>
         <v>0.91458974163886</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1860,21 +1947,20 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0"/>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>0.191061</v>
       </c>
       <c r="H12" s="1" t="n">
         <f aca="false">F12/G12</f>
         <v>0.880818168019638</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1882,21 +1968,20 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>0.190221</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">F13/G13</f>
         <v>0.884707787257979</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1904,21 +1989,20 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0"/>
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>0.190107</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">F14/G14</f>
         <v>0.885238313160483</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1926,21 +2010,20 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0"/>
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>0.187199</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">F15/G15</f>
         <v>0.898989845031223</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1948,21 +2031,20 @@
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0"/>
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>0.193946</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">F16/G16</f>
         <v>0.867715755932064</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1970,21 +2052,20 @@
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0"/>
       <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>0.16829</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>0.204211</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">F17/G17</f>
         <v>0.824098603894991</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2015,7 +2096,7 @@
         <f aca="false">F18/G18</f>
         <v>0.671301836516522</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2041,7 +2122,7 @@
       <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2072,7 +2153,7 @@
         <f aca="false">F20/G20</f>
         <v>0.831888498104083</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2103,7 +2184,7 @@
         <f aca="false">F21/G21</f>
         <v>1.44269337390088</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2134,7 +2215,7 @@
         <f aca="false">F22/G22</f>
         <v>2.40779142799769</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2165,7 +2246,7 @@
         <f aca="false">F23/G23</f>
         <v>3.29568741002398</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2196,7 +2277,7 @@
         <f aca="false">F24/G24</f>
         <v>3.99773544295858</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2227,7 +2308,7 @@
         <f aca="false">F25/G25</f>
         <v>4.57579536008464</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2785,7 +2866,7 @@
         <f aca="false">F45/G45</f>
         <v>5.97430578393922</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,7 +2897,7 @@
         <f aca="false">F46/G46</f>
         <v>6.05503136591286</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2847,7 +2928,7 @@
         <f aca="false">F47/G47</f>
         <v>4.96612610970724</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2878,7 +2959,7 @@
         <f aca="false">F48/G48</f>
         <v>5.05450641021068</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2909,7 +2990,7 @@
         <f aca="false">F49/G49</f>
         <v>5.04365747480752</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49" s="1" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2940,7 +3021,7 @@
         <f aca="false">F50/G50</f>
         <v>5.04030249996443</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="1" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3167,14 +3248,13 @@
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="0"/>
       <c r="E59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="1" t="n">
         <v>63.6327</v>
       </c>
       <c r="H59" s="1" t="n">
@@ -3214,14 +3294,13 @@
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="0"/>
       <c r="E61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="1" t="n">
         <v>46.3373</v>
       </c>
       <c r="H61" s="1" t="n">
@@ -3233,14 +3312,13 @@
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="0"/>
       <c r="E62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="1" t="n">
         <v>39.6044</v>
       </c>
       <c r="H62" s="1" t="n">
@@ -3447,22 +3525,6 @@
         <f aca="false">F72/G72</f>
         <v>3.65081062183596</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0"/>
-      <c r="B78" s="0"/>
-      <c r="E78" s="0"/>
-      <c r="F78" s="0"/>
-      <c r="G78" s="0"/>
-      <c r="H78" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3481,10 +3543,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4101,22 +4163,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>127.184</v>
+      <c r="G23" s="0" t="n">
+        <v>124.329</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">F23/G23</f>
-        <v>1.69140772424204</v>
+        <v>1.73024797110891</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1053.79</v>
@@ -4129,22 +4191,22 @@
         <v>3.08375497113159</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>120.512</v>
+        <v>127.184</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">F24/G24</f>
-        <v>1.78505045140733</v>
+        <v>1.69140772424204</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1053.79</v>
@@ -4154,18 +4216,201 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G25" s="1" t="n">
-        <v>173.836</v>
+      <c r="G25" s="0" t="n">
+        <v>127.072</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">F25/G25</f>
+        <v>1.69289851422815</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>124.667</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">F26/G26</f>
+        <v>1.72555688353774</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>121.376</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">F27/G27</f>
+        <v>1.77234379119431</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>120.512</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">F28/G28</f>
+        <v>1.78505045140733</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>147.803</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">F29/G29</f>
+        <v>1.45545083658654</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>154.529</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">F30/G30</f>
+        <v>1.39210115900575</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>156.444</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">F31/G31</f>
+        <v>1.37506072460433</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>158.653</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <f aca="false">F32/G32</f>
+        <v>1.35591511033513</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>161.833</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">F33/G33</f>
+        <v>1.32927153300007</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>169.981</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">F34/G34</f>
+        <v>1.26555320888805</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>175.091</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">F35/G35</f>
+        <v>1.22861826136124</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>173.836</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">F36/G36</f>
         <v>1.23748820727582</v>
       </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
   <si>
     <t xml:space="preserve">N=1024</t>
   </si>
@@ -263,6 +263,15 @@
     <t xml:space="preserve">MPI_Bcast Speedup</t>
   </si>
   <si>
+    <t xml:space="preserve">MPI_Bcast N=4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather N=4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather Speedup</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=4000 Process=1, Value=1330.687030</t>
   </si>
   <si>
@@ -314,6 +323,12 @@
     <t xml:space="preserve">N=4000 Processes=32</t>
   </si>
   <si>
+    <t xml:space="preserve">MPI_Bcast N=10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather N=10000 nodi=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">N=10000 Process=1, Value=3330.381017</t>
   </si>
   <si>
@@ -363,6 +378,18 @@
   </si>
   <si>
     <t xml:space="preserve">N=10000 Processes=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather N=10000 nodi=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Process=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather N=10000 nodi=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather N=10000 nodi=8</t>
   </si>
 </sst>
 </file>
@@ -1310,11 +1337,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="61322056"/>
-        <c:axId val="8135497"/>
+        <c:axId val="42743539"/>
+        <c:axId val="64853962"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61322056"/>
+        <c:axId val="42743539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1409,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8135497"/>
+        <c:crossAx val="64853962"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8135497"/>
+        <c:axId val="64853962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1494,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61322056"/>
+        <c:crossAx val="42743539"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1519,6 +1546,1006 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Distributed speedup with MPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0784390135278072"/>
+          <c:y val="0.172592237661715"/>
+          <c:w val="0.690474865000278"/>
+          <c:h val="0.586200287494011"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Bcast N=4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.956732814325166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1042316084788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12613650813835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09637109254101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04238086130034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.992887674304534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.954406455437008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.946140851089402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.979469809560018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.777847312571708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.734174788470407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.695896667730766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.688153817761503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.672962755397665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.640426483948095</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.592841303711142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.605513486718403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Bcast N=10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$H$20:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.04503786756312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36153622197749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69919668880973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73024797110891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.69140772424204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.69289851422815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.72555688353774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.77234379119431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.78505045140733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.45545083658654</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.39210115900575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.37506072460433</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.35591511033513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.32927153300007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.26555320888805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.22861826136124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.23748820727582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Allgather N=4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.00768771246106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.58004016588219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.38873529114266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.58952639418113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.48451289029007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.96071945723103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.41392603300807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.83423713036325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.38495508124986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2254503156136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.31769256524987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.12049912129634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.06305313082314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.01969584601352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.88533396322851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.80373739312476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.82694007353895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Allgather N=10000 nodi=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$J$20:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.975295712452793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69407169407169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.61338814742464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8922764172988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.85511789704481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.44612151134663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.92715270475523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.35566984216974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.80860147754071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.51602084245899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8116433016287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.92387908060989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.93429191158451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.98174232692785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0171802054155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.94262736746416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.85940235956024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="80125511"/>
+        <c:axId val="47142580"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80125511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Number of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47142580"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47142580"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80125511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.794445062896583"/>
+          <c:y val="0.196110365970492"/>
+          <c:w val="0.193309584771235"/>
+          <c:h val="0.557578080091972"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1530,9 +2557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
+      <xdr:colOff>173880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1541,7 +2568,42 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12143520" y="1329120"/>
-        <a:ext cx="5754960" cy="3241440"/>
+        <a:ext cx="5753160" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>118800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16994520" y="200880"/>
+        <a:ext cx="6466320" cy="3756240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1667,7 +2729,7 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S14" activeCellId="0" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -3543,10 +4605,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I57" activeCellId="0" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3557,7 +4619,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,15 +4638,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>84.8628</v>
@@ -3595,7 +4665,7 @@
         <v>1.04210782255034</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>14.1695</v>
@@ -3607,10 +4677,20 @@
         <f aca="false">F2/G2</f>
         <v>0.956732814325166</v>
       </c>
+      <c r="I2" s="1" t="n">
+        <v>14.0614</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">F2/I2</f>
+        <v>1.00768771246106</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>84.8628</v>
@@ -3623,7 +4703,7 @@
         <v>0.916436017360522</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>14.1695</v>
@@ -3635,10 +4715,20 @@
         <f aca="false">F3/G3</f>
         <v>1.1042316084788</v>
       </c>
+      <c r="I3" s="1" t="n">
+        <v>8.96781</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">F3/I3</f>
+        <v>1.58004016588219</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>84.8628</v>
@@ -3651,7 +4741,7 @@
         <v>1.59497653473367</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>14.1695</v>
@@ -3663,10 +4753,20 @@
         <f aca="false">F4/G4</f>
         <v>1.12613650813835</v>
       </c>
+      <c r="I4" s="1" t="n">
+        <v>5.9318</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">F4/I4</f>
+        <v>2.38873529114266</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>84.8628</v>
@@ -3679,7 +4779,7 @@
         <v>2.12058922748229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>14.1695</v>
@@ -3691,10 +4791,20 @@
         <f aca="false">F5/G5</f>
         <v>1.09637109254101</v>
       </c>
+      <c r="I5" s="1" t="n">
+        <v>5.47185</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">F5/I5</f>
+        <v>2.58952639418113</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>84.8628</v>
@@ -3707,7 +4817,7 @@
         <v>2.43027578109339</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>14.1695</v>
@@ -3719,10 +4829,20 @@
         <f aca="false">F6/G6</f>
         <v>1.04238086130034</v>
       </c>
+      <c r="I6" s="1" t="n">
+        <v>5.70313</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">F6/I6</f>
+        <v>2.48451289029007</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>84.8628</v>
@@ -3735,7 +4855,7 @@
         <v>2.67011091009203</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>14.1695</v>
@@ -3747,10 +4867,20 @@
         <f aca="false">F7/G7</f>
         <v>0.992887674304534</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <v>4.78583</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">F7/I7</f>
+        <v>2.96071945723103</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>84.8628</v>
@@ -3763,7 +4893,7 @@
         <v>2.88423342283248</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>14.1695</v>
@@ -3775,10 +4905,20 @@
         <f aca="false">F8/G8</f>
         <v>0.954406455437008</v>
       </c>
+      <c r="I8" s="1" t="n">
+        <v>4.1505</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">F8/I8</f>
+        <v>3.41392603300807</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>84.8628</v>
@@ -3791,7 +4931,7 @@
         <v>3.09441557731226</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>14.1695</v>
@@ -3803,10 +4943,20 @@
         <f aca="false">F9/G9</f>
         <v>0.946140851089402</v>
       </c>
+      <c r="I9" s="1" t="n">
+        <v>3.69552</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">F9/I9</f>
+        <v>3.83423713036325</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>84.8628</v>
@@ -3819,7 +4969,7 @@
         <v>3.31632629135501</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>14.1695</v>
@@ -3831,10 +4981,20 @@
         <f aca="false">F10/G10</f>
         <v>0.979469809560018</v>
       </c>
+      <c r="I10" s="1" t="n">
+        <v>3.23139</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">F10/I10</f>
+        <v>4.38495508124986</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>84.8628</v>
@@ -3847,7 +5007,7 @@
         <v>1.99700200729025</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>14.1695</v>
@@ -3859,10 +5019,20 @@
         <f aca="false">F11/G11</f>
         <v>0.777847312571708</v>
       </c>
+      <c r="I11" s="1" t="n">
+        <v>4.39303</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">F11/I11</f>
+        <v>3.2254503156136</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>84.8628</v>
@@ -3875,7 +5045,7 @@
         <v>2.06295625539363</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>14.1695</v>
@@ -3887,10 +5057,20 @@
         <f aca="false">F12/G12</f>
         <v>0.734174788470407</v>
       </c>
+      <c r="I12" s="1" t="n">
+        <v>4.27089</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">F12/I12</f>
+        <v>3.31769256524987</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>84.8628</v>
@@ -3903,7 +5083,7 @@
         <v>2.12627970955667</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>14.1695</v>
@@ -3915,10 +5095,20 @@
         <f aca="false">F13/G13</f>
         <v>0.695896667730766</v>
       </c>
+      <c r="I13" s="1" t="n">
+        <v>4.54078</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">F13/I13</f>
+        <v>3.12049912129634</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>84.8628</v>
@@ -3931,7 +5121,7 @@
         <v>2.19066918269516</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>14.1695</v>
@@ -3943,10 +5133,20 @@
         <f aca="false">F14/G14</f>
         <v>0.688153817761503</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <v>4.62594</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">F14/I14</f>
+        <v>3.06305313082314</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>84.8628</v>
@@ -3959,7 +5159,7 @@
         <v>2.2124981424076</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>14.1695</v>
@@ -3971,10 +5171,20 @@
         <f aca="false">F15/G15</f>
         <v>0.672962755397665</v>
       </c>
+      <c r="I15" s="1" t="n">
+        <v>4.69236</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">F15/I15</f>
+        <v>3.01969584601352</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>84.8628</v>
@@ -3987,7 +5197,7 @@
         <v>2.21781194955075</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>14.1695</v>
@@ -3999,10 +5209,20 @@
         <f aca="false">F16/G16</f>
         <v>0.640426483948095</v>
       </c>
+      <c r="I16" s="1" t="n">
+        <v>4.91087</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">F16/I16</f>
+        <v>2.88533396322851</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>84.8628</v>
@@ -4015,7 +5235,7 @@
         <v>2.21498129882468</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>14.1695</v>
@@ -4027,10 +5247,20 @@
         <f aca="false">F17/G17</f>
         <v>0.592841303711142</v>
       </c>
+      <c r="I17" s="1" t="n">
+        <v>5.05379</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">F17/I17</f>
+        <v>2.80373739312476</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>84.8628</v>
@@ -4043,7 +5273,7 @@
         <v>2.29064230881353</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>14.1695</v>
@@ -4055,6 +5285,16 @@
         <f aca="false">F18/G18</f>
         <v>0.605513486718403</v>
       </c>
+      <c r="I18" s="1" t="n">
+        <v>5.01231</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">F18/I18</f>
+        <v>2.82694007353895</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
@@ -4070,15 +5310,21 @@
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="I19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1053.79</v>
@@ -4088,7 +5334,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>215.12</v>
@@ -4100,10 +5346,17 @@
         <f aca="false">F20/G20</f>
         <v>1.04503786756312</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>220.569</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">F20/I20</f>
+        <v>0.975295712452793</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1053.79</v>
@@ -4113,7 +5366,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>215.12</v>
@@ -4125,10 +5378,17 @@
         <f aca="false">F21/G21</f>
         <v>1.36153622197749</v>
       </c>
+      <c r="I21" s="1" t="n">
+        <v>126.984</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">F21/I21</f>
+        <v>1.69407169407169</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1053.79</v>
@@ -4138,7 +5398,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>215.12</v>
@@ -4150,10 +5410,17 @@
         <f aca="false">F22/G22</f>
         <v>1.69919668880973</v>
       </c>
+      <c r="I22" s="1" t="n">
+        <v>82.3146</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">F22/I22</f>
+        <v>2.61338814742464</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1053.79</v>
@@ -4163,22 +5430,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>124.329</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">F23/G23</f>
         <v>1.73024797110891</v>
       </c>
+      <c r="I23" s="1" t="n">
+        <v>74.3774</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">F23/I23</f>
+        <v>2.8922764172988</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1053.79</v>
@@ -4191,7 +5465,7 @@
         <v>3.08375497113159</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>215.12</v>
@@ -4203,10 +5477,17 @@
         <f aca="false">F24/G24</f>
         <v>1.69140772424204</v>
       </c>
+      <c r="I24" s="1" t="n">
+        <v>75.3454</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">F24/I24</f>
+        <v>2.85511789704481</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1053.79</v>
@@ -4216,22 +5497,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>127.072</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">F25/G25</f>
         <v>1.69289851422815</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <v>62.4238</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">F25/I25</f>
+        <v>3.44612151134663</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>215.12</v>
@@ -4243,10 +5531,17 @@
         <f aca="false">F26/G26</f>
         <v>1.72555688353774</v>
       </c>
+      <c r="I26" s="1" t="n">
+        <v>54.7776</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">F26/I26</f>
+        <v>3.92715270475523</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>215.12</v>
@@ -4258,10 +5553,17 @@
         <f aca="false">F27/G27</f>
         <v>1.77234379119431</v>
       </c>
+      <c r="I27" s="1" t="n">
+        <v>49.3885</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <f aca="false">F27/I27</f>
+        <v>4.35566984216974</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>215.12</v>
@@ -4273,10 +5575,17 @@
         <f aca="false">F28/G28</f>
         <v>1.78505045140733</v>
       </c>
+      <c r="I28" s="1" t="n">
+        <v>44.7365</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <f aca="false">F28/I28</f>
+        <v>4.80860147754071</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>215.12</v>
@@ -4288,10 +5597,17 @@
         <f aca="false">F29/G29</f>
         <v>1.45545083658654</v>
       </c>
+      <c r="I29" s="1" t="n">
+        <v>61.1828</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <f aca="false">F29/I29</f>
+        <v>3.51602084245899</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>215.12</v>
@@ -4303,10 +5619,17 @@
         <f aca="false">F30/G30</f>
         <v>1.39210115900575</v>
       </c>
+      <c r="I30" s="1" t="n">
+        <v>56.4376</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <f aca="false">F30/I30</f>
+        <v>3.8116433016287</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>215.12</v>
@@ -4318,10 +5641,17 @@
         <f aca="false">F31/G31</f>
         <v>1.37506072460433</v>
       </c>
+      <c r="I31" s="1" t="n">
+        <v>54.8233</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <f aca="false">F31/I31</f>
+        <v>3.92387908060989</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>215.12</v>
@@ -4333,10 +5663,17 @@
         <f aca="false">F32/G32</f>
         <v>1.35591511033513</v>
       </c>
+      <c r="I32" s="1" t="n">
+        <v>54.6782</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <f aca="false">F32/I32</f>
+        <v>3.93429191158451</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>215.12</v>
@@ -4348,10 +5685,17 @@
         <f aca="false">F33/G33</f>
         <v>1.32927153300007</v>
       </c>
+      <c r="I33" s="1" t="n">
+        <v>54.0266</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <f aca="false">F33/I33</f>
+        <v>3.98174232692785</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>215.12</v>
@@ -4363,10 +5707,17 @@
         <f aca="false">F34/G34</f>
         <v>1.26555320888805</v>
       </c>
+      <c r="I34" s="1" t="n">
+        <v>53.55</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <f aca="false">F34/I34</f>
+        <v>4.0171802054155</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>215.12</v>
@@ -4378,10 +5729,17 @@
         <f aca="false">F35/G35</f>
         <v>1.22861826136124</v>
       </c>
+      <c r="I35" s="1" t="n">
+        <v>54.5626</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <f aca="false">F35/I35</f>
+        <v>3.94262736746416</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>215.12</v>
@@ -4393,24 +5751,793 @@
         <f aca="false">F36/G36</f>
         <v>1.23748820727582</v>
       </c>
+      <c r="I36" s="1" t="n">
+        <v>55.7392</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <f aca="false">F36/I36</f>
+        <v>3.85940235956024</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>235.456</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <f aca="false">F38/I38</f>
+        <v>0.913631421581952</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>124.822</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <f aca="false">F39/I39</f>
+        <v>1.72341414173783</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
+      <c r="F40" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>82.2214</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <f aca="false">F40/I40</f>
+        <v>2.6163504878292</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
+      <c r="F41" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>75.8462</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <f aca="false">F41/I41</f>
+        <v>2.83626602255617</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
+      <c r="F42" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>75.5354</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <f aca="false">F42/I42</f>
+        <v>2.84793619945085</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>62.667</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <f aca="false">F43/I43</f>
+        <v>3.43274769815054</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>54.868</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <f aca="false">F44/I44</f>
+        <v>3.9206823649486</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>48.9448</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <f aca="false">F45/I45</f>
+        <v>4.39515535868979</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>45.3164</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <f aca="false">F46/I46</f>
+        <v>4.74706728689834</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>60.7967</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <f aca="false">F47/I47</f>
+        <v>3.53834994333574</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>58.5514</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <f aca="false">F48/I48</f>
+        <v>3.67403682917915</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>55.166</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <f aca="false">F49/I49</f>
+        <v>3.89950331726063</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>52.6764</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <f aca="false">F50/I50</f>
+        <v>4.08380223401751</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>52.1187</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <f aca="false">F51/I51</f>
+        <v>4.12750126154336</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>56.1365</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <f aca="false">F52/I52</f>
+        <v>3.83208785727646</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>57.7841</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <f aca="false">F53/I53</f>
+        <v>3.7228234064388</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>56.2831</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <f aca="false">F54/I54</f>
+        <v>3.82210645824413</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>220.439</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <f aca="false">F56/I56</f>
+        <v>0.975870875843204</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>133.685</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <f aca="false">F57/I57</f>
+        <v>1.60915585144182</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>82.5335</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <f aca="false">F58/I58</f>
+        <v>2.6064567720986</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>75.4285</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <f aca="false">F59/I59</f>
+        <v>2.85197239770113</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>75.2375</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <f aca="false">F60/I60</f>
+        <v>2.85921249376973</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>62.233</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <f aca="false">F61/I61</f>
+        <v>3.45668696672184</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>55.0611</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <f aca="false">F62/I62</f>
+        <v>3.90693248046261</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>49.0801</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <f aca="false">F63/I63</f>
+        <v>4.38303915436195</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>45.0207</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <f aca="false">F64/I64</f>
+        <v>4.77824645107695</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>58.7625</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <f aca="false">F65/I65</f>
+        <v>3.66083811954903</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>57.034</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <f aca="false">F66/I66</f>
+        <v>3.77178525090297</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>54.0377</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <f aca="false">F67/I67</f>
+        <v>3.9809244286859</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>52.7309</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <f aca="false">F68/I68</f>
+        <v>4.07958142189874</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>52.0343</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <f aca="false">F69/I69</f>
+        <v>4.1341960975741</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>53.8669</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <f aca="false">F70/I70</f>
+        <v>3.99354705765507</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>55.0645</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <f aca="false">F71/I71</f>
+        <v>3.90669124390488</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>56.5129</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <f aca="false">F72/I72</f>
+        <v>3.80656451889746</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>205.818</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <f aca="false">F74/I74</f>
+        <v>1.04519526960713</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>121.417</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <f aca="false">F75/I75</f>
+        <v>1.77174530749401</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>70.7402</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <f aca="false">F76/I76</f>
+        <v>3.04098659602319</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>52.0762</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <f aca="false">F77/I77</f>
+        <v>4.13086976392287</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>44.2202</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <f aca="false">F78/I78</f>
+        <v>4.86474507125703</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>39.9327</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <f aca="false">F79/I79</f>
+        <v>5.38706373473369</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>37.4258</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <f aca="false">F80/I80</f>
+        <v>5.74790652437623</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>34.4642</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <f aca="false">F81/I81</f>
+        <v>6.24183935794245</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>32.3932</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <f aca="false">F82/I82</f>
+        <v>6.64089994196313</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>58.5664</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <f aca="false">F83/I83</f>
+        <v>3.6730958365206</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>56.4868</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <f aca="false">F84/I84</f>
+        <v>3.80832336050192</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>54.0965</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <f aca="false">F85/I85</f>
+        <v>3.97659737690978</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F86" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>52.7344</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <f aca="false">F86/I86</f>
+        <v>4.07931065869717</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>52.6036</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <f aca="false">F87/I87</f>
+        <v>4.0894539537218</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>53.768</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <f aca="false">F88/I88</f>
+        <v>4.00089272429698</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F89" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <f aca="false">F89/I89</f>
+        <v>3.78532465247229</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>56.6126</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <f aca="false">F90/I90</f>
+        <v>3.79986080837128</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4420,5 +6547,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Distributed" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Scaling" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="148">
   <si>
     <t xml:space="preserve">N=1024</t>
   </si>
@@ -390,6 +391,81 @@
   </si>
   <si>
     <t xml:space="preserve">MPI_Allgather N=10000 nodi=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequentialv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel with FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributed with MPI_Allgather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speedup FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speedup MPI_Allgather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency MPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speedup MPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=200 Thread=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=400 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=800 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1600 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=3200 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=6400 Thread=32</t>
   </si>
 </sst>
 </file>
@@ -399,7 +475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,6 +512,16 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1337,11 +1423,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="42743539"/>
-        <c:axId val="64853962"/>
+        <c:axId val="48503079"/>
+        <c:axId val="49090688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42743539"/>
+        <c:axId val="48503079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1495,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64853962"/>
+        <c:crossAx val="49090688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,7 +1503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64853962"/>
+        <c:axId val="49090688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1580,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42743539"/>
+        <c:crossAx val="48503079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1594,10 +1680,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0784390135278072"/>
-          <c:y val="0.172592237661715"/>
-          <c:w val="0.690474865000278"/>
-          <c:h val="0.586200287494011"/>
+          <c:x val="0.0784477478982239"/>
+          <c:y val="0.172625323492763"/>
+          <c:w val="0.690440398641501"/>
+          <c:h val="0.586120962331065"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2327,11 +2413,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="80125511"/>
-        <c:axId val="47142580"/>
+        <c:axId val="22051099"/>
+        <c:axId val="72806146"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80125511"/>
+        <c:axId val="22051099"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2485,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47142580"/>
+        <c:crossAx val="72806146"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2407,7 +2493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47142580"/>
+        <c:axId val="72806146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2570,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80125511"/>
+        <c:crossAx val="22051099"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2546,6 +2632,1730 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Problem size scaling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequentialv2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$F$2:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.000391298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00202459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0135032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0856793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.157707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.506821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.83267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.77847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.38579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.8939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.8815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.7949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel with FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$F$2:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.105951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.119586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.197191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.162547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.220786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.320101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.604612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.40209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.27549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.02362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.83094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed with MPI_Allgather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$F$2:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.00235929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00436104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.010611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0362846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0579755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.153421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.304189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.553564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.21211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.69083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="91517323"/>
+        <c:axId val="74279559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91517323"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Size of matrix (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74279559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74279559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Time (in seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91517323"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.766134118141686"/>
+          <c:y val="0.407471931862176"/>
+          <c:w val="0.226613411814169"/>
+          <c:h val="0.274487030584592"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Weak scalability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$E$29:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$G$30:$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200,1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400,2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200,16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$E$30:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.018460825044716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.118823825759961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.661949364954048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.07249211987792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.14005154396052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$F$29:$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$G$30:$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200,1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400,2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200,16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$F$30:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.767741249906527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3744378146521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.08660785692368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.42127778697768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.91908878965716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="65734291"/>
+        <c:axId val="20894628"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65734291"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Matrix size (N), Number of threads/processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20894628"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20894628"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65734291"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel with FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$F$2:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$E$16:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.000230824862436409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00116685147957913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00746501671767474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0447791233923704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0499854836174065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.194874790060721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.357770080530468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.553081293091868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.597332462802591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.418383894757113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.381618354727993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.308824826897172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.359594871805487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed with MPI_Allgather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$F$2:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$F$16:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.0103658833801695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0290152979564508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0795353878051079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14758206649653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17001470448724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.206466601703808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.259676138847887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.319821872448353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341840392806436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.296868357793522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.270342158269798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.264898482784497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.269937262062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="92306392"/>
+        <c:axId val="28300641"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92306392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Matrix size (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28300641"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="28300641"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92306392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.773725367532061"/>
+          <c:y val="0.367573570238756"/>
+          <c:w val="0.226274632467939"/>
+          <c:h val="0.396779566907274"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2557,9 +4367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2568,7 +4378,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12143520" y="1329120"/>
-        <a:ext cx="5753160" cy="3239640"/>
+        <a:ext cx="5752440" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2592,9 +4402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>118800</xdr:colOff>
+      <xdr:colOff>118080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2603,11 +4413,106 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16994520" y="200880"/>
-        <a:ext cx="6466320" cy="3756240"/>
+        <a:ext cx="6465600" cy="3755520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>702000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11238480" y="28800"/>
+        <a:ext cx="6847200" cy="3719160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11424600" y="4102200"/>
+        <a:ext cx="5757480" cy="3241080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>652320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>631800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4132800" y="5928480"/>
+        <a:ext cx="5754600" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2729,7 +4634,7 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S14" activeCellId="0" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -4607,8 +6512,8 @@
   </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I57" activeCellId="0" sqref="I57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G96" activeCellId="0" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6549,4 +8454,750 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J52" activeCellId="0" sqref="J52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.000391298</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.105951</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.00235929</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.00202459</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.108443</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.00436104</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0135032</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.113054</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.010611</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0856793</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.119586</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.0362846</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.157707</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.197191</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.0579755</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.506821</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.162547</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.153421</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1.26385</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.220786</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.304189</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.83267</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.320101</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.553564</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5.77847</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.604612</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1.0565</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>9.38579</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1.40209</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1.976</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>13.8939</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2.27549</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>3.21211</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>19.8815</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4.02362</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4.69083</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>27.7949</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4.83094</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>6.4355</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">B2/C2</f>
+        <v>0.00369319779898255</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">B2/D2</f>
+        <v>0.165854134082711</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">C16/B16</f>
+        <v>0.000230824862436409</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">D16/B16</f>
+        <v>0.0103658833801695</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">B3/C3</f>
+        <v>0.0186696236732661</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">B3/D3</f>
+        <v>0.464244767303212</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">C17/B17</f>
+        <v>0.00116685147957913</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">D17/B17</f>
+        <v>0.0290152979564508</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">B4/C4</f>
+        <v>0.119440267482796</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">B4/D4</f>
+        <v>1.27256620488173</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">C18/B18</f>
+        <v>0.00746501671767474</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">D18/B18</f>
+        <v>0.0795353878051079</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">B5/C5</f>
+        <v>0.716465974277926</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">B5/D5</f>
+        <v>2.36131306394448</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">C19/B19</f>
+        <v>0.0447791233923704</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">D19/B19</f>
+        <v>0.14758206649653</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">B6/C6</f>
+        <v>0.799767737878504</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">B6/D6</f>
+        <v>2.72023527179585</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">C20/B20</f>
+        <v>0.0499854836174065</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">D20/B20</f>
+        <v>0.17001470448724</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">B7/C7</f>
+        <v>3.11799664097153</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">B7/D7</f>
+        <v>3.30346562726094</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">C21/B21</f>
+        <v>0.194874790060721</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">D21/B21</f>
+        <v>0.206466601703808</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">B8/C8</f>
+        <v>5.72432128848749</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">B8/D8</f>
+        <v>4.1548182215662</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">C22/B22</f>
+        <v>0.357770080530468</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">D22/B22</f>
+        <v>0.259676138847887</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">B9/C9</f>
+        <v>8.84930068946989</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">B9/D9</f>
+        <v>5.11714995917365</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">C23/B23</f>
+        <v>0.553081293091868</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">D23/B23</f>
+        <v>0.319821872448353</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">B10/C10</f>
+        <v>9.55731940484145</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">B10/D10</f>
+        <v>5.46944628490298</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">C24/B24</f>
+        <v>0.597332462802591</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">D24/B24</f>
+        <v>0.341840392806436</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">B11/C11</f>
+        <v>6.6941423161138</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">B11/D11</f>
+        <v>4.74989372469636</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">C25/B25</f>
+        <v>0.418383894757113</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">D25/B25</f>
+        <v>0.296868357793522</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">B12/C12</f>
+        <v>6.10589367564788</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">B12/D12</f>
+        <v>4.32547453231676</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">C26/B26</f>
+        <v>0.381618354727993</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">D26/B26</f>
+        <v>0.270342158269798</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">B13/C13</f>
+        <v>4.94119723035476</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">B13/D13</f>
+        <v>4.23837572455195</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">C27/B27</f>
+        <v>0.308824826897172</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">D27/B27</f>
+        <v>0.264898482784497</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">B14/C14</f>
+        <v>5.75351794888779</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">B14/D14</f>
+        <v>4.318996192992</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">C28/B28</f>
+        <v>0.359594871805487</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">D28/B28</f>
+        <v>0.269937262062</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0.0019507</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0.105667</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.00254083</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <f aca="false">B30/C30</f>
+        <v>0.018460825044716</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <f aca="false">B30/D30</f>
+        <v>0.767741249906527</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>200.1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0.0132081</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.111157</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.00960982</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <f aca="false">B31/C31</f>
+        <v>0.118823825759961</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <f aca="false">B31/D31</f>
+        <v>1.3744378146521</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>400.2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0.0863599</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.130463</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.0413877</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <f aca="false">B32/C32</f>
+        <v>0.661949364954048</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <f aca="false">B32/D32</f>
+        <v>2.08660785692368</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>800.4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0.614099</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0.19987</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.253626</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <f aca="false">B33/C33</f>
+        <v>3.07249211987792</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <f aca="false">B33/D33</f>
+        <v>2.42127778697768</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>1600.8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>6.73074</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0.826867</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1.36829</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <f aca="false">B34/C34</f>
+        <v>8.14005154396052</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <f aca="false">B34/D34</f>
+        <v>4.91908878965716</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>3200.16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>57.4296</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>19.3902</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>17.4641</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <f aca="false">B35/C35</f>
+        <v>2.96178481913544</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <f aca="false">B35/D35</f>
+        <v>3.28843742305644</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>6400.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExamProject/result.xlsx
+++ b/ExamProject/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parallel" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
   <si>
     <t xml:space="preserve">N=1024</t>
   </si>
@@ -264,135 +264,147 @@
     <t xml:space="preserve">MPI_Bcast Speedup</t>
   </si>
   <si>
+    <t xml:space="preserve">MPI_Allgather N=4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather Speedup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Process=1, Value=1330.687030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Process=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=4000 Processes=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Processes=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather N=10000 nodi=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather 1 node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=10000 Process=1, Value=3330.381017</t>
+  </si>
+  <si>
     <t xml:space="preserve">MPI_Bcast N=4000</t>
   </si>
   <si>
-    <t xml:space="preserve">MPI_Allgather N=4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI_Allgather Speedup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Process=1, Value=1330.687030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=4000 Processes=32</t>
+    <t xml:space="preserve">MPI_Allgather N=10000 nodi=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI_Allgather 2 nodes</t>
   </si>
   <si>
     <t xml:space="preserve">MPI_Bcast N=10000</t>
   </si>
   <si>
-    <t xml:space="preserve">MPI_Allgather N=10000 nodi=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Process=1, Value=3330.381017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Processes=30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI_Allgather N=10000 nodi=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=10000 Process=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">MPI_Allgather N=10000 nodi=4</t>
   </si>
   <si>
+    <t xml:space="preserve">MPI_Allgather 4 nodes</t>
+  </si>
+  <si>
     <t xml:space="preserve">MPI_Allgather N=10000 nodi=8</t>
   </si>
   <si>
+    <t xml:space="preserve">MPI_Allgather 8 nodes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sequentialv2</t>
   </si>
   <si>
@@ -435,6 +447,18 @@
     <t xml:space="preserve">N=5000</t>
   </si>
   <si>
+    <t xml:space="preserve">N=6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=9000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Speedup FF</t>
   </si>
   <si>
@@ -466,6 +490,24 @@
   </si>
   <si>
     <t xml:space="preserve">N=6400 Thread=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=400 Thread=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=800 Thread=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=1600 Thread=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=3200 Thread=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=6400 Thread=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=12800 Thread=32</t>
   </si>
 </sst>
 </file>
@@ -475,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -512,6 +554,11 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1423,11 +1470,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="48503079"/>
-        <c:axId val="49090688"/>
+        <c:axId val="54746319"/>
+        <c:axId val="36370038"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48503079"/>
+        <c:axId val="54746319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1542,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49090688"/>
+        <c:crossAx val="36370038"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1503,7 +1550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49090688"/>
+        <c:axId val="36370038"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48503079"/>
+        <c:crossAx val="54746319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1680,10 +1727,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0784477478982239"/>
-          <c:y val="0.172625323492763"/>
-          <c:w val="0.690440398641501"/>
-          <c:h val="0.586120962331065"/>
+          <c:x val="0.078473962684489"/>
+          <c:y val="0.172724657140117"/>
+          <c:w val="0.690336953494848"/>
+          <c:h val="0.585882804258176"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1694,7 +1741,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Distributed!$G$1</c:f>
+              <c:f>Distributed!$B$27:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1808,7 +1855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Distributed!$H$2:$H$18</c:f>
+              <c:f>Distributed!$C$28:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1873,7 +1920,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Distributed!$G$19</c:f>
+              <c:f>Distributed!$B$45:$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1987,7 +2034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Distributed!$H$20:$H$36</c:f>
+              <c:f>Distributed!$C$46:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2413,11 +2460,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="22051099"/>
-        <c:axId val="72806146"/>
+        <c:axId val="82024338"/>
+        <c:axId val="45484973"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22051099"/>
+        <c:axId val="82024338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2532,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72806146"/>
+        <c:crossAx val="45484973"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72806146"/>
+        <c:axId val="45484973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2617,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22051099"/>
+        <c:crossAx val="82024338"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2660,6 +2707,995 @@
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
+              <a:t>MPI_Allgather nodes compare</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Allgather 1 node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$J$20:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.975295712452793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69407169407169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.61338814742464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8922764172988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.85511789704481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.44612151134663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.92715270475523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.35566984216974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.80860147754071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.51602084245899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8116433016287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.92387908060989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.93429191158451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.98174232692785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0171802054155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.94262736746416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.85940235956024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$J$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Allgather 2 nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$J$38:$J$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.86703697274779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.05865357819245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.96287658564802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.37630707386341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.29737207467263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8484083553456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.31122462835995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.56972381812957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.56357297663568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.15653071122043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.14297021999418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.16760304704633</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.08115255755009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.92544716010905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.81969722258721</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7849250475051</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.57529271961242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$J$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Allgather 4 nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$J$56:$J$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.24579112386574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6271918503605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8969298245614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.04514185513241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0163160971135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.38946890064423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.68651817407576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.61421293264338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3336159788958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.55754021639418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.31908028807254</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.11201376278314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.94742395355281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.75219991732323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.51801609534883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.37412968565948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.63495654848101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Distributed!$J$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Allgather 8 nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Distributed!$K$2:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Distributed!$J$74:$J$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.21045773163914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.62258179713572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.70280189777102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.64669917959364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.37781100704102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.17152724993666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.868871355542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4467599876531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.64880218329949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.56533595923625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2640491420167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0252231349288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.76749814795031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.51971412957758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4028444565367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.23917852071692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.43800342649654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="84401259"/>
+        <c:axId val="28554658"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84401259"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Number of process x node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28554658"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="28554658"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84401259"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.692033516758379"/>
+          <c:y val="0.270960577456968"/>
+          <c:w val="0.287581290645323"/>
+          <c:h val="0.348362021099389"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
               <a:t>Problem size scaling</a:t>
             </a:r>
           </a:p>
@@ -3100,43 +4136,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.00235929</c:v>
+                  <c:v>0.0841374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00436104</c:v>
+                  <c:v>0.13279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.010611</c:v>
+                  <c:v>0.229615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0362846</c:v>
+                  <c:v>0.454838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0579755</c:v>
+                  <c:v>0.574862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.153421</c:v>
+                  <c:v>0.920372</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.304189</c:v>
+                  <c:v>1.3457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.553564</c:v>
+                  <c:v>1.7892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0565</c:v>
+                  <c:v>2.32819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.976</c:v>
+                  <c:v>2.97092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.21211</c:v>
+                  <c:v>3.67356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.69083</c:v>
+                  <c:v>4.42245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4355</c:v>
+                  <c:v>5.34538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,11 +4187,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="91517323"/>
-        <c:axId val="74279559"/>
+        <c:axId val="70440758"/>
+        <c:axId val="7591181"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91517323"/>
+        <c:axId val="70440758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +4259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74279559"/>
+        <c:crossAx val="7591181"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +4267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74279559"/>
+        <c:axId val="7591181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +4344,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91517323"/>
+        <c:crossAx val="70440758"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3370,7 +4406,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3421,7 +4457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scaling!$E$29:$E$29</c:f>
+              <c:f>Scaling!$E$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3476,9 +4512,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scaling!$G$30:$G$34</c:f>
+              <c:f>Scaling!$G$40:$G$45</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>200,1</c:v>
                 </c:pt>
@@ -3493,16 +4529,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3200,16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400,32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scaling!$E$30:$E$34</c:f>
+              <c:f>Scaling!$E$40:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.018460825044716</c:v>
                 </c:pt>
@@ -3517,6 +4556,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.14005154396052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.96178481913544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,7 +4570,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scaling!$F$29:$F$29</c:f>
+              <c:f>Scaling!$F$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3583,9 +4625,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scaling!$G$30:$G$34</c:f>
+              <c:f>Scaling!$G$40:$G$45</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>200,1</c:v>
                 </c:pt>
@@ -3600,16 +4642,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3200,16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400,32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scaling!$F$30:$F$34</c:f>
+              <c:f>Scaling!$F$40:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.767741249906527</c:v>
                 </c:pt>
@@ -3624,6 +4669,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.91908878965716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28843742305644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,11 +4686,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="65734291"/>
-        <c:axId val="20894628"/>
+        <c:axId val="25613267"/>
+        <c:axId val="58749826"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65734291"/>
+        <c:axId val="25613267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,7 +4758,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20894628"/>
+        <c:crossAx val="58749826"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3718,7 +4766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20894628"/>
+        <c:axId val="58749826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,7 +4843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65734291"/>
+        <c:crossAx val="25613267"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3847,7 +4895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3884,6 +4932,647 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$E$2:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$E$21:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.000230824862436409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00116685147957913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00746501671767474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0447791233923704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0499854836174065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.194874790060721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.357770080530468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.553081293091868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.597332462802591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.418383894757113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.381618354727993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.308824826897172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.359594871805487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.342554890854317</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33812373240854</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.365580250241837</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.347630876128828</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.362922273359157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed with MPI_Allgather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scaling!$E$2:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scaling!$F$21:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.000290668893975806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000952909669402817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00367550029397034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0117733264371051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0216707651955202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.055102463721728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0586985397934161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0989502990163202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15512238047582</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.197451252473981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.236383440041812</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.280974064149962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.324987419042238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.357289567014518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.380397296779475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.437817319136006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.435459292160847</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.490012063517518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="21951160"/>
+        <c:axId val="52855617"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="21951160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Matrix size (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52855617"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52855617"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21951160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.773725367532061"/>
+          <c:y val="0.367573570238756"/>
+          <c:w val="0.226274632467939"/>
+          <c:h val="0.396779566907274"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Weak scalability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scaling!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -3912,95 +5601,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scaling!$F$2:$F$14</c:f>
+              <c:f>Scaling!$G$47:$G$52</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>400,1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>800,2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>1600,4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>3200,8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>6400,16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5000</c:v>
+                  <c:v>12800,32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scaling!$E$16:$E$28</c:f>
+              <c:f>Scaling!$E$47:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.000230824862436409</c:v>
+                  <c:v>0.112612358107761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00116685147957913</c:v>
+                  <c:v>0.565177304496466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00746501671767474</c:v>
+                  <c:v>2.15817222569972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0447791233923704</c:v>
+                  <c:v>3.21943572169408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0499854836174065</c:v>
+                  <c:v>5.76130277272521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.194874790060721</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.357770080530468</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.553081293091868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.597332462802591</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.418383894757113</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.381618354727993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.308824826897172</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.359594871805487</c:v>
+                  <c:v>4.02604424512459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,11 +5659,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scaling!$D$1</c:f>
+              <c:f>Scaling!$F$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distributed with MPI_Allgather</c:v>
+                  <c:v>Speedup MPI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4033,7 +5680,13 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -4062,95 +5715,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scaling!$F$2:$F$14</c:f>
+              <c:f>Scaling!$G$47:$G$52</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>400,1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>800,2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>1600,4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>3200,8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>6400,16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5000</c:v>
+                  <c:v>12800,32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scaling!$F$16:$F$28</c:f>
+              <c:f>Scaling!$F$47:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0103658833801695</c:v>
+                  <c:v>0.888843092474223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0290152979564508</c:v>
+                  <c:v>1.39778633081313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0795353878051079</c:v>
+                  <c:v>2.03486140760901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14758206649653</c:v>
+                  <c:v>2.36342201107361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17001470448724</c:v>
+                  <c:v>4.39591871256449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.206466601703808</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.259676138847887</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.319821872448353</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.341840392806436</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.296868357793522</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.270342158269798</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.264898482784497</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.269937262062</c:v>
+                  <c:v>3.80059196539843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4164,12 +5775,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="92306392"/>
-        <c:axId val="28300641"/>
+        <c:marker val="1"/>
+        <c:axId val="43120351"/>
+        <c:axId val="89960224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92306392"/>
+        <c:axId val="43120351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,7 +5801,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Matrix size (N)</a:t>
+                  <a:t>Matrix size (N), Number of threads/processes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4225,7 +5836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28300641"/>
+        <c:crossAx val="89960224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4233,7 +5844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28300641"/>
+        <c:axId val="89960224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,7 +5874,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Efficiency</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4298,7 +5909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92306392"/>
+        <c:crossAx val="43120351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4313,16 +5924,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.773725367532061"/>
-          <c:y val="0.367573570238756"/>
-          <c:w val="0.226274632467939"/>
-          <c:h val="0.396779566907274"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4367,9 +5968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
+      <xdr:colOff>171000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4378,7 +5979,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12143520" y="1329120"/>
-        <a:ext cx="5752440" cy="3238920"/>
+        <a:ext cx="5750280" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4402,9 +6003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4412,12 +6013,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16994520" y="200880"/>
-        <a:ext cx="6465600" cy="3755520"/>
+        <a:off x="17407080" y="200880"/>
+        <a:ext cx="6463440" cy="3753360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>473760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>539280</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17726040" y="4341240"/>
+        <a:ext cx="5755320" cy="3240000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4437,18 +6068,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>702000</xdr:colOff>
+      <xdr:colOff>699840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11238480" y="28800"/>
-        <a:ext cx="6847200" cy="3719160"/>
+        <a:ext cx="6845040" cy="3717000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4467,18 +6098,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>611280</xdr:colOff>
+      <xdr:colOff>609120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11424600" y="4102200"/>
-        <a:ext cx="5757480" cy="3241080"/>
+        <a:ext cx="5755320" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4490,29 +6121,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>652320</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573480</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>636480</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4132800" y="5928480"/>
-        <a:ext cx="5754600" cy="3241800"/>
+        <a:off x="11454840" y="7678080"/>
+        <a:ext cx="5752440" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1384560</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150840</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6090480" y="8893080"/>
+        <a:ext cx="5754600" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4634,8 +6295,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S14" activeCellId="0" sqref="S14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G64" activeCellId="0" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6512,13 +8173,14 @@
   </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G96" activeCellId="0" sqref="G96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P67" activeCellId="0" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.35"/>
@@ -6542,22 +8204,16 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>84.8628</v>
@@ -6570,17 +8226,13 @@
         <v>1.04210782255034</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>14.8103</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">F2/G2</f>
-        <v>0.956732814325166</v>
+      <c r="H2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>14.0614</v>
@@ -6613,12 +8265,8 @@
       <c r="F3" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>12.832</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">F3/G3</f>
-        <v>1.1042316084788</v>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>8.96781</v>
@@ -6633,7 +8281,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>84.8628</v>
@@ -6646,17 +8294,13 @@
         <v>1.59497653473367</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>12.5824</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">F4/G4</f>
-        <v>1.12613650813835</v>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>5.9318</v>
@@ -6671,7 +8315,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>84.8628</v>
@@ -6684,17 +8328,13 @@
         <v>2.12058922748229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>12.924</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">F5/G5</f>
-        <v>1.09637109254101</v>
+      <c r="H5" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>5.47185</v>
@@ -6709,7 +8349,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>84.8628</v>
@@ -6722,17 +8362,13 @@
         <v>2.43027578109339</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>13.5934</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">F6/G6</f>
-        <v>1.04238086130034</v>
+      <c r="H6" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>5.70313</v>
@@ -6747,7 +8383,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>84.8628</v>
@@ -6760,17 +8396,13 @@
         <v>2.67011091009203</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>14.271</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">F7/G7</f>
-        <v>0.992887674304534</v>
+      <c r="H7" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.78583</v>
@@ -6785,7 +8417,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>84.8628</v>
@@ -6798,17 +8430,13 @@
         <v>2.88423342283248</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>14.8464</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">F8/G8</f>
-        <v>0.954406455437008</v>
+      <c r="H8" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.1505</v>
@@ -6823,7 +8451,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>84.8628</v>
@@ -6836,17 +8464,13 @@
         <v>3.09441557731226</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>14.9761</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">F9/G9</f>
-        <v>0.946140851089402</v>
+      <c r="H9" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>3.69552</v>
@@ -6861,7 +8485,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>84.8628</v>
@@ -6874,17 +8498,13 @@
         <v>3.31632629135501</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>14.4665</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">F10/G10</f>
-        <v>0.979469809560018</v>
+      <c r="H10" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>3.23139</v>
@@ -6899,7 +8519,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>84.8628</v>
@@ -6912,17 +8532,13 @@
         <v>1.99700200729025</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>18.2163</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">F11/G11</f>
-        <v>0.777847312571708</v>
+      <c r="H11" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>4.39303</v>
@@ -6937,7 +8553,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>84.8628</v>
@@ -6950,17 +8566,13 @@
         <v>2.06295625539363</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>19.2999</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">F12/G12</f>
-        <v>0.734174788470407</v>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.27089</v>
@@ -6975,7 +8587,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>84.8628</v>
@@ -6988,17 +8600,13 @@
         <v>2.12627970955667</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>20.3615</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">F13/G13</f>
-        <v>0.695896667730766</v>
+      <c r="H13" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.54078</v>
@@ -7013,7 +8621,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>84.8628</v>
@@ -7026,17 +8634,13 @@
         <v>2.19066918269516</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>20.5906</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">F14/G14</f>
-        <v>0.688153817761503</v>
+      <c r="H14" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.62594</v>
@@ -7051,7 +8655,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>84.8628</v>
@@ -7064,17 +8668,13 @@
         <v>2.2124981424076</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>21.0554</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">F15/G15</f>
-        <v>0.672962755397665</v>
+      <c r="H15" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.69236</v>
@@ -7089,7 +8689,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>84.8628</v>
@@ -7102,17 +8702,13 @@
         <v>2.21781194955075</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>22.1251</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">F16/G16</f>
-        <v>0.640426483948095</v>
+      <c r="H16" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>4.91087</v>
@@ -7127,7 +8723,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>84.8628</v>
@@ -7140,17 +8736,13 @@
         <v>2.21498129882468</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>23.901</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">F17/G17</f>
-        <v>0.592841303711142</v>
+      <c r="H17" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>5.05379</v>
@@ -7165,7 +8757,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>84.8628</v>
@@ -7178,17 +8770,13 @@
         <v>2.29064230881353</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>14.1695</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>23.4008</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">F18/G18</f>
-        <v>0.605513486718403</v>
+      <c r="H18" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>5.01231</v>
@@ -7214,22 +8802,16 @@
       <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1053.79</v>
@@ -7239,17 +8821,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <v>205.849</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">F20/G20</f>
-        <v>1.04503786756312</v>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>220.569</v>
@@ -7261,7 +8839,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1053.79</v>
@@ -7271,17 +8849,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>157.998</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">F21/G21</f>
-        <v>1.36153622197749</v>
+      <c r="H21" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>126.984</v>
@@ -7293,7 +8867,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1053.79</v>
@@ -7303,17 +8877,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>126.601</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">F22/G22</f>
-        <v>1.69919668880973</v>
+      <c r="H22" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>82.3146</v>
@@ -7325,7 +8895,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1053.79</v>
@@ -7335,17 +8905,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>124.329</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">F23/G23</f>
-        <v>1.73024797110891</v>
+      <c r="H23" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>74.3774</v>
@@ -7357,7 +8923,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1053.79</v>
@@ -7370,17 +8936,13 @@
         <v>3.08375497113159</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>127.184</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">F24/G24</f>
-        <v>1.69140772424204</v>
+      <c r="H24" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>75.3454</v>
@@ -7392,7 +8954,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1053.79</v>
@@ -7402,17 +8964,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G25" s="1" t="n">
-        <v>127.072</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">F25/G25</f>
-        <v>1.69289851422815</v>
+      <c r="H25" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>62.4238</v>
@@ -7424,17 +8982,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G26" s="1" t="n">
-        <v>124.667</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">F26/G26</f>
-        <v>1.72555688353774</v>
+      <c r="H26" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>54.7776</v>
@@ -7445,18 +8999,20 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>121.376</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">F27/G27</f>
-        <v>1.77234379119431</v>
+      <c r="H27" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>49.3885</v>
@@ -7467,18 +9023,24 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>14.8103</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <f aca="false">F2/B28</f>
+        <v>0.956732814325166</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>120.512</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <f aca="false">F28/G28</f>
-        <v>1.78505045140733</v>
+      <c r="H28" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>44.7365</v>
@@ -7489,18 +9051,24 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>12.832</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <f aca="false">F3/B29</f>
+        <v>1.1042316084788</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <v>147.803</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <f aca="false">F29/G29</f>
-        <v>1.45545083658654</v>
+      <c r="H29" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>61.1828</v>
@@ -7511,18 +9079,24 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>12.5824</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <f aca="false">F4/B30</f>
+        <v>1.12613650813835</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <v>154.529</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <f aca="false">F30/G30</f>
-        <v>1.39210115900575</v>
+      <c r="H30" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>56.4376</v>
@@ -7533,18 +9107,24 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>12.924</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <f aca="false">F5/B31</f>
+        <v>1.09637109254101</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>156.444</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <f aca="false">F31/G31</f>
-        <v>1.37506072460433</v>
+      <c r="H31" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>54.8233</v>
@@ -7555,18 +9135,24 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>13.5934</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <f aca="false">F6/B32</f>
+        <v>1.04238086130034</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>158.653</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <f aca="false">F32/G32</f>
-        <v>1.35591511033513</v>
+      <c r="H32" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>54.6782</v>
@@ -7577,18 +9163,24 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>14.271</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <f aca="false">F7/B33</f>
+        <v>0.992887674304534</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>161.833</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <f aca="false">F33/G33</f>
-        <v>1.32927153300007</v>
+      <c r="H33" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>54.0266</v>
@@ -7599,18 +9191,24 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>14.8464</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <f aca="false">F8/B34</f>
+        <v>0.954406455437008</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>169.981</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <f aca="false">F34/G34</f>
-        <v>1.26555320888805</v>
+      <c r="H34" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>53.55</v>
@@ -7621,18 +9219,24 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>14.9761</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <f aca="false">F9/B35</f>
+        <v>0.946140851089402</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>175.091</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">F35/G35</f>
-        <v>1.22861826136124</v>
+      <c r="H35" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>54.5626</v>
@@ -7643,18 +9247,24 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>14.4665</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <f aca="false">F10/B36</f>
+        <v>0.979469809560018</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>215.12</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>173.836</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">F36/G36</f>
-        <v>1.23748820727582</v>
+      <c r="H36" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>55.7392</v>
@@ -7665,373 +9275,635 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>18.2163</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <f aca="false">F11/B37</f>
+        <v>0.777847312571708</v>
+      </c>
       <c r="I37" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>19.2999</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <f aca="false">F12/B38</f>
+        <v>0.734174788470407</v>
+      </c>
       <c r="F38" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>235.456</v>
+        <v>115.22</v>
       </c>
       <c r="J38" s="2" t="n">
         <f aca="false">F38/I38</f>
-        <v>0.913631421581952</v>
+        <v>1.86703697274779</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>20.3615</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <f aca="false">F13/B39</f>
+        <v>0.695896667730766</v>
+      </c>
       <c r="F39" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>124.822</v>
+        <v>70.3316</v>
       </c>
       <c r="J39" s="2" t="n">
         <f aca="false">F39/I39</f>
-        <v>1.72341414173783</v>
+        <v>3.05865357819245</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>20.5906</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <f aca="false">F14/B40</f>
+        <v>0.688153817761503</v>
+      </c>
       <c r="F40" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>82.2214</v>
+        <v>54.2838</v>
       </c>
       <c r="J40" s="2" t="n">
         <f aca="false">F40/I40</f>
-        <v>2.6163504878292</v>
+        <v>3.96287658564802</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>21.0554</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <f aca="false">F15/B41</f>
+        <v>0.672962755397665</v>
+      </c>
       <c r="F41" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>75.8462</v>
+        <v>49.1556</v>
       </c>
       <c r="J41" s="2" t="n">
         <f aca="false">F41/I41</f>
-        <v>2.83626602255617</v>
+        <v>4.37630707386341</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>22.1251</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <f aca="false">F16/B42</f>
+        <v>0.640426483948095</v>
+      </c>
       <c r="F42" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>75.5354</v>
+        <v>50.0585</v>
       </c>
       <c r="J42" s="2" t="n">
         <f aca="false">F42/I42</f>
-        <v>2.84793619945085</v>
+        <v>4.29737207467263</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>23.901</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <f aca="false">F17/B43</f>
+        <v>0.592841303711142</v>
+      </c>
       <c r="F43" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>62.667</v>
+        <v>44.3692</v>
       </c>
       <c r="J43" s="2" t="n">
         <f aca="false">F43/I43</f>
-        <v>3.43274769815054</v>
+        <v>4.8484083553456</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>23.4008</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <f aca="false">F18/B44</f>
+        <v>0.605513486718403</v>
+      </c>
       <c r="F44" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>54.868</v>
+        <v>40.5029</v>
       </c>
       <c r="J44" s="2" t="n">
         <f aca="false">F44/I44</f>
-        <v>3.9206823649486</v>
+        <v>5.31122462835995</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F45" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>48.9448</v>
+        <v>38.6231</v>
       </c>
       <c r="J45" s="2" t="n">
         <f aca="false">F45/I45</f>
-        <v>4.39515535868979</v>
+        <v>5.56972381812957</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>205.849</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <f aca="false">F20/B46</f>
+        <v>1.04503786756312</v>
+      </c>
       <c r="F46" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>45.3164</v>
+        <v>38.6658</v>
       </c>
       <c r="J46" s="2" t="n">
         <f aca="false">F46/I46</f>
-        <v>4.74706728689834</v>
+        <v>5.56357297663568</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>157.998</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <f aca="false">F21/B47</f>
+        <v>1.36153622197749</v>
+      </c>
       <c r="F47" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>60.7967</v>
+        <v>51.7547</v>
       </c>
       <c r="J47" s="2" t="n">
         <f aca="false">F47/I47</f>
-        <v>3.53834994333574</v>
+        <v>4.15653071122043</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>126.601</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <f aca="false">F22/B48</f>
+        <v>1.69919668880973</v>
+      </c>
       <c r="F48" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>58.5514</v>
+        <v>51.9241</v>
       </c>
       <c r="J48" s="2" t="n">
         <f aca="false">F48/I48</f>
-        <v>3.67403682917915</v>
+        <v>4.14297021999418</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>124.329</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <f aca="false">F23/B49</f>
+        <v>1.73024797110891</v>
+      </c>
       <c r="F49" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>55.166</v>
+        <v>51.6172</v>
       </c>
       <c r="J49" s="2" t="n">
         <f aca="false">F49/I49</f>
-        <v>3.89950331726063</v>
+        <v>4.16760304704633</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>127.184</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <f aca="false">F24/B50</f>
+        <v>1.69140772424204</v>
+      </c>
       <c r="F50" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>52.6764</v>
+        <v>52.7106</v>
       </c>
       <c r="J50" s="2" t="n">
         <f aca="false">F50/I50</f>
-        <v>4.08380223401751</v>
+        <v>4.08115255755009</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>127.072</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <f aca="false">F25/B51</f>
+        <v>1.69289851422815</v>
+      </c>
       <c r="F51" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>52.1187</v>
+        <v>54.8014</v>
       </c>
       <c r="J51" s="2" t="n">
         <f aca="false">F51/I51</f>
-        <v>4.12750126154336</v>
+        <v>3.92544716010905</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>124.667</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <f aca="false">F26/B52</f>
+        <v>1.72555688353774</v>
+      </c>
       <c r="F52" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>56.1365</v>
+        <v>56.3186</v>
       </c>
       <c r="J52" s="2" t="n">
         <f aca="false">F52/I52</f>
-        <v>3.83208785727646</v>
+        <v>3.81969722258721</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>121.376</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <f aca="false">F27/B53</f>
+        <v>1.77234379119431</v>
+      </c>
       <c r="F53" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>57.7841</v>
+        <v>56.836</v>
       </c>
       <c r="J53" s="2" t="n">
         <f aca="false">F53/I53</f>
-        <v>3.7228234064388</v>
+        <v>3.7849250475051</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>120.512</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <f aca="false">F28/B54</f>
+        <v>1.78505045140733</v>
+      </c>
       <c r="F54" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>56.2831</v>
+        <v>60.1685</v>
       </c>
       <c r="J54" s="2" t="n">
         <f aca="false">F54/I54</f>
-        <v>3.82210645824413</v>
+        <v>3.57529271961242</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>147.803</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <f aca="false">F29/B55</f>
+        <v>1.45545083658654</v>
+      </c>
       <c r="I55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>154.529</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <f aca="false">F30/B56</f>
+        <v>1.39210115900575</v>
+      </c>
       <c r="F56" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>220.439</v>
+        <v>66.2766</v>
       </c>
       <c r="J56" s="2" t="n">
         <f aca="false">F56/I56</f>
-        <v>0.975870875843204</v>
+        <v>3.24579112386574</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>156.444</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <f aca="false">F31/B57</f>
+        <v>1.37506072460433</v>
+      </c>
       <c r="F57" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>133.685</v>
+        <v>46.4904</v>
       </c>
       <c r="J57" s="2" t="n">
         <f aca="false">F57/I57</f>
-        <v>1.60915585144182</v>
+        <v>4.6271918503605</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>158.653</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <f aca="false">F32/B58</f>
+        <v>1.35591511033513</v>
+      </c>
       <c r="F58" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>82.5335</v>
+        <v>36.48</v>
       </c>
       <c r="J58" s="2" t="n">
         <f aca="false">F58/I58</f>
-        <v>2.6064567720986</v>
+        <v>5.8969298245614</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>161.833</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <f aca="false">F33/B59</f>
+        <v>1.32927153300007</v>
+      </c>
       <c r="F59" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>75.4285</v>
+        <v>35.5856</v>
       </c>
       <c r="J59" s="2" t="n">
         <f aca="false">F59/I59</f>
-        <v>2.85197239770113</v>
+        <v>6.04514185513241</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>169.981</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <f aca="false">F34/B60</f>
+        <v>1.26555320888805</v>
+      </c>
       <c r="F60" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>75.2375</v>
+        <v>35.7561</v>
       </c>
       <c r="J60" s="2" t="n">
         <f aca="false">F60/I60</f>
-        <v>2.85921249376973</v>
+        <v>6.0163160971135</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>175.091</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <f aca="false">F35/B61</f>
+        <v>1.22861826136124</v>
+      </c>
       <c r="F61" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>62.233</v>
+        <v>33.6679</v>
       </c>
       <c r="J61" s="2" t="n">
         <f aca="false">F61/I61</f>
-        <v>3.45668696672184</v>
+        <v>6.38946890064423</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>173.836</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <f aca="false">F36/B62</f>
+        <v>1.23748820727582</v>
+      </c>
       <c r="F62" s="1" t="n">
         <v>215.12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>55.0611</v>
+        <v>32.1722</v>
       </c>
       <c r="J62" s="2" t="n">
         <f aca="false">F62/I62</f>
-        <v>3.90693248046261</v>
+        <v>6.68651817407576</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8039,14 +9911,14 @@
         <v>215.12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>49.0801</v>
+        <v>32.5239</v>
       </c>
       <c r="J63" s="2" t="n">
         <f aca="false">F63/I63</f>
-        <v>4.38303915436195</v>
+        <v>6.61421293264338</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8054,14 +9926,14 @@
         <v>215.12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>45.0207</v>
+        <v>33.9648</v>
       </c>
       <c r="J64" s="2" t="n">
         <f aca="false">F64/I64</f>
-        <v>4.77824645107695</v>
+        <v>6.3336159788958</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8069,14 +9941,14 @@
         <v>215.12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>58.7625</v>
+        <v>47.2009</v>
       </c>
       <c r="J65" s="2" t="n">
         <f aca="false">F65/I65</f>
-        <v>3.66083811954903</v>
+        <v>4.55754021639418</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8084,14 +9956,14 @@
         <v>215.12</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>57.034</v>
+        <v>49.8069</v>
       </c>
       <c r="J66" s="2" t="n">
         <f aca="false">F66/I66</f>
-        <v>3.77178525090297</v>
+        <v>4.31908028807254</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8099,14 +9971,14 @@
         <v>215.12</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>54.0377</v>
+        <v>52.315</v>
       </c>
       <c r="J67" s="2" t="n">
         <f aca="false">F67/I67</f>
-        <v>3.9809244286859</v>
+        <v>4.11201376278314</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8114,14 +9986,14 @@
         <v>215.12</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>52.7309</v>
+        <v>54.4963</v>
       </c>
       <c r="J68" s="2" t="n">
         <f aca="false">F68/I68</f>
-        <v>4.07958142189874</v>
+        <v>3.94742395355281</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8129,14 +10001,14 @@
         <v>215.12</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>52.0343</v>
+        <v>57.3317</v>
       </c>
       <c r="J69" s="2" t="n">
         <f aca="false">F69/I69</f>
-        <v>4.1341960975741</v>
+        <v>3.75219991732323</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8144,14 +10016,14 @@
         <v>215.12</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>53.8669</v>
+        <v>61.1481</v>
       </c>
       <c r="J70" s="2" t="n">
         <f aca="false">F70/I70</f>
-        <v>3.99354705765507</v>
+        <v>3.51801609534883</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,14 +10031,14 @@
         <v>215.12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>55.0645</v>
+        <v>63.7557</v>
       </c>
       <c r="J71" s="2" t="n">
         <f aca="false">F71/I71</f>
-        <v>3.90669124390488</v>
+        <v>3.37412968565948</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,19 +10046,22 @@
         <v>215.12</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>56.5129</v>
+        <v>59.1809</v>
       </c>
       <c r="J72" s="2" t="n">
         <f aca="false">F72/I72</f>
-        <v>3.80656451889746</v>
+        <v>3.63495654848101</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I73" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8194,14 +10069,14 @@
         <v>215.12</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>205.818</v>
+        <v>41.2862</v>
       </c>
       <c r="J74" s="2" t="n">
         <f aca="false">F74/I74</f>
-        <v>1.04519526960713</v>
+        <v>5.21045773163914</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8209,14 +10084,14 @@
         <v>215.12</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>121.417</v>
+        <v>32.4828</v>
       </c>
       <c r="J75" s="2" t="n">
         <f aca="false">F75/I75</f>
-        <v>1.77174530749401</v>
+        <v>6.62258179713572</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,14 +10099,14 @@
         <v>215.12</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>70.7402</v>
+        <v>27.9275</v>
       </c>
       <c r="J76" s="2" t="n">
         <f aca="false">F76/I76</f>
-        <v>3.04098659602319</v>
+        <v>7.70280189777102</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8239,14 +10114,14 @@
         <v>215.12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>52.0762</v>
+        <v>28.1324</v>
       </c>
       <c r="J77" s="2" t="n">
         <f aca="false">F77/I77</f>
-        <v>4.13086976392287</v>
+        <v>7.64669917959364</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,14 +10129,14 @@
         <v>215.12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>44.2202</v>
+        <v>29.1577</v>
       </c>
       <c r="J78" s="2" t="n">
         <f aca="false">F78/I78</f>
-        <v>4.86474507125703</v>
+        <v>7.37781100704102</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,14 +10144,14 @@
         <v>215.12</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>39.9327</v>
+        <v>29.9964</v>
       </c>
       <c r="J79" s="2" t="n">
         <f aca="false">F79/I79</f>
-        <v>5.38706373473369</v>
+        <v>7.17152724993666</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8284,14 +10159,14 @@
         <v>215.12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>37.4258</v>
+        <v>31.3181</v>
       </c>
       <c r="J80" s="2" t="n">
         <f aca="false">F80/I80</f>
-        <v>5.74790652437623</v>
+        <v>6.868871355542</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,14 +10174,14 @@
         <v>215.12</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>34.4642</v>
+        <v>33.3687</v>
       </c>
       <c r="J81" s="2" t="n">
         <f aca="false">F81/I81</f>
-        <v>6.24183935794245</v>
+        <v>6.4467599876531</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8314,14 +10189,14 @@
         <v>215.12</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>32.3932</v>
+        <v>32.3547</v>
       </c>
       <c r="J82" s="2" t="n">
         <f aca="false">F82/I82</f>
-        <v>6.64089994196313</v>
+        <v>6.64880218329949</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8329,14 +10204,14 @@
         <v>215.12</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>58.5664</v>
+        <v>47.1203</v>
       </c>
       <c r="J83" s="2" t="n">
         <f aca="false">F83/I83</f>
-        <v>3.6730958365206</v>
+        <v>4.56533595923625</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8344,14 +10219,14 @@
         <v>215.12</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>56.4868</v>
+        <v>50.4497</v>
       </c>
       <c r="J84" s="2" t="n">
         <f aca="false">F84/I84</f>
-        <v>3.80832336050192</v>
+        <v>4.2640491420167</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8359,14 +10234,14 @@
         <v>215.12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>54.0965</v>
+        <v>53.443</v>
       </c>
       <c r="J85" s="2" t="n">
         <f aca="false">F85/I85</f>
-        <v>3.97659737690978</v>
+        <v>4.0252231349288</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8374,14 +10249,14 @@
         <v>215.12</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>52.7344</v>
+        <v>57.0989</v>
       </c>
       <c r="J86" s="2" t="n">
         <f aca="false">F86/I86</f>
-        <v>4.07931065869717</v>
+        <v>3.76749814795031</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,14 +10264,14 @@
         <v>215.12</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>52.6036</v>
+        <v>61.1186</v>
       </c>
       <c r="J87" s="2" t="n">
         <f aca="false">F87/I87</f>
-        <v>4.0894539537218</v>
+        <v>3.51971412957758</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8404,14 +10279,14 @@
         <v>215.12</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>53.768</v>
+        <v>63.2177</v>
       </c>
       <c r="J88" s="2" t="n">
         <f aca="false">F88/I88</f>
-        <v>4.00089272429698</v>
+        <v>3.4028444565367</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,14 +10294,14 @@
         <v>215.12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>56.83</v>
+        <v>66.4119</v>
       </c>
       <c r="J89" s="2" t="n">
         <f aca="false">F89/I89</f>
-        <v>3.78532465247229</v>
+        <v>3.23917852071692</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8434,14 +10309,14 @@
         <v>215.12</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>56.6126</v>
+        <v>62.5712</v>
       </c>
       <c r="J90" s="2" t="n">
         <f aca="false">F90/I90</f>
-        <v>3.79986080837128</v>
+        <v>3.43800342649654</v>
       </c>
     </row>
   </sheetData>
@@ -8461,10 +10336,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J52" activeCellId="0" sqref="J52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8479,18 +10354,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.000391298</v>
@@ -8499,7 +10374,7 @@
         <v>0.105951</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.00235929</v>
+        <v>0.0841374</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>100</v>
@@ -8507,10 +10382,13 @@
       <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.00202459</v>
@@ -8519,15 +10397,16 @@
         <v>0.108443</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.00436104</v>
+        <v>0.13279</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.0135032</v>
@@ -8536,15 +10415,18 @@
         <v>0.113054</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.010611</v>
+        <v>0.229615</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>400</v>
       </c>
+      <c r="G4" s="1" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.0856793</v>
@@ -8553,7 +10435,7 @@
         <v>0.119586</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.0362846</v>
+        <v>0.454838</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>800</v>
@@ -8561,7 +10443,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.157707</v>
@@ -8570,7 +10452,7 @@
         <v>0.197191</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.0579755</v>
+        <v>0.574862</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1000</v>
@@ -8578,10 +10460,13 @@
       <c r="F6" s="1" t="n">
         <v>1000</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.506821</v>
@@ -8590,7 +10475,7 @@
         <v>0.162547</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.153421</v>
+        <v>0.920372</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1500</v>
@@ -8607,7 +10492,7 @@
         <v>0.220786</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.304189</v>
+        <v>1.3457</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>2000</v>
@@ -8615,10 +10500,13 @@
       <c r="F8" s="1" t="n">
         <v>2000</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2.83267</v>
@@ -8627,15 +10515,16 @@
         <v>0.320101</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.553564</v>
+        <v>1.7892</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>2500</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5.77847</v>
@@ -8644,7 +10533,7 @@
         <v>0.604612</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>1.0565</v>
+        <v>2.32819</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>3000</v>
@@ -8652,10 +10541,13 @@
       <c r="F10" s="1" t="n">
         <v>3000</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9.38579</v>
@@ -8664,11 +10556,12 @@
         <v>1.40209</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>1.976</v>
+        <v>2.97092</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>3500</v>
       </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -8681,7 +10574,7 @@
         <v>2.27549</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>3.21211</v>
+        <v>3.67356</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>4000</v>
@@ -8689,10 +10582,13 @@
       <c r="F12" s="1" t="n">
         <v>4000</v>
       </c>
+      <c r="G12" s="1" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>19.8815</v>
@@ -8701,7 +10597,7 @@
         <v>4.02362</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>4.69083</v>
+        <v>4.42245</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>4500</v>
@@ -8709,7 +10605,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>27.7949</v>
@@ -8718,7 +10614,7 @@
         <v>4.83094</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>6.4355</v>
+        <v>5.34538</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>5000</v>
@@ -8726,468 +10622,885 @@
       <c r="F14" s="1" t="n">
         <v>5000</v>
       </c>
+      <c r="G14" s="1" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>140</v>
+      <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44.8104</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>8.17577</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>7.8386</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0" t="n">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>69.8872</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>12.9182</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>11.4826</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>110.655</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>18.9177</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>15.7964</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>147.45</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>26.5098</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>21.163</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>215.12</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>37.0465</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>27.4381</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false">B2/C2</f>
         <v>0.00369319779898255</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false">B2/D2</f>
-        <v>0.165854134082711</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">C16/B16</f>
+        <v>0.0046507023036129</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">C21/B21</f>
         <v>0.000230824862436409</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">D16/B16</f>
-        <v>0.0103658833801695</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0" t="n">
+      <c r="F21" s="1" t="n">
+        <f aca="false">D21/B21</f>
+        <v>0.000290668893975806</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false">B3/C3</f>
         <v>0.0186696236732661</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <f aca="false">B3/D3</f>
-        <v>0.464244767303212</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">C17/B17</f>
+        <v>0.0152465547104451</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <f aca="false">C22/B22</f>
         <v>0.00116685147957913</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <f aca="false">D17/B17</f>
-        <v>0.0290152979564508</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0" t="n">
+      <c r="F22" s="1" t="n">
+        <f aca="false">D22/B22</f>
+        <v>0.000952909669402817</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">B4/C4</f>
         <v>0.119440267482796</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">B4/D4</f>
-        <v>1.27256620488173</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">C18/B18</f>
+        <v>0.0588080047035255</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <f aca="false">C23/B23</f>
         <v>0.00746501671767474</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">D18/B18</f>
-        <v>0.0795353878051079</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0" t="n">
+      <c r="F23" s="1" t="n">
+        <f aca="false">D23/B23</f>
+        <v>0.00367550029397034</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <f aca="false">B5/C5</f>
         <v>0.716465974277926</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">B5/D5</f>
-        <v>2.36131306394448</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">C19/B19</f>
+        <v>0.188373222993681</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <f aca="false">C24/B24</f>
         <v>0.0447791233923704</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">D19/B19</f>
-        <v>0.14758206649653</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0" t="n">
+      <c r="F24" s="1" t="n">
+        <f aca="false">D24/B24</f>
+        <v>0.0117733264371051</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false">B6/C6</f>
         <v>0.799767737878504</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <f aca="false">B6/D6</f>
-        <v>2.72023527179585</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">C20/B20</f>
+      <c r="D25" s="1" t="n">
+        <f aca="false">B6/D5</f>
+        <v>0.346732243128323</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <f aca="false">C25/B25</f>
         <v>0.0499854836174065</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <f aca="false">D20/B20</f>
-        <v>0.17001470448724</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0" t="n">
+      <c r="F25" s="1" t="n">
+        <f aca="false">D25/B25</f>
+        <v>0.0216707651955202</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false">B7/C7</f>
         <v>3.11799664097153</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false">B7/D7</f>
-        <v>3.30346562726094</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">C21/B21</f>
+      <c r="D26" s="1" t="n">
+        <f aca="false">B7/D6</f>
+        <v>0.881639419547648</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <f aca="false">C26/B26</f>
         <v>0.194874790060721</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">D21/B21</f>
-        <v>0.206466601703808</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="F26" s="1" t="n">
+        <f aca="false">D26/B26</f>
+        <v>0.055102463721728</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <f aca="false">B8/C8</f>
         <v>5.72432128848749</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <f aca="false">B8/D8</f>
-        <v>4.1548182215662</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">C22/B22</f>
+        <v>0.939176636694657</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <f aca="false">C27/B27</f>
         <v>0.357770080530468</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <f aca="false">D22/B22</f>
-        <v>0.259676138847887</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="F27" s="1" t="n">
+        <f aca="false">D27/B27</f>
+        <v>0.0586985397934161</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <f aca="false">B9/C9</f>
         <v>8.84930068946989</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <f aca="false">B9/D9</f>
-        <v>5.11714995917365</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">C23/B23</f>
+        <v>1.58320478426112</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <f aca="false">C28/B28</f>
         <v>0.553081293091868</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false">D23/B23</f>
-        <v>0.319821872448353</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="F28" s="1" t="n">
+        <f aca="false">D28/B28</f>
+        <v>0.0989502990163202</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <f aca="false">B10/C10</f>
         <v>9.55731940484145</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <f aca="false">B10/D10</f>
-        <v>5.46944628490298</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">C24/B24</f>
+        <v>2.48195808761312</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <f aca="false">C29/B29</f>
         <v>0.597332462802591</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">D24/B24</f>
-        <v>0.341840392806436</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+      <c r="F29" s="1" t="n">
+        <f aca="false">D29/B29</f>
+        <v>0.15512238047582</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <f aca="false">B11/C11</f>
         <v>6.6941423161138</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <f aca="false">B11/D11</f>
-        <v>4.74989372469636</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">C25/B25</f>
+        <v>3.1592200395837</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <f aca="false">C30/B30</f>
         <v>0.418383894757113</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">D25/B25</f>
-        <v>0.296868357793522</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+      <c r="F30" s="1" t="n">
+        <f aca="false">D30/B30</f>
+        <v>0.197451252473981</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <f aca="false">B12/C12</f>
         <v>6.10589367564788</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <f aca="false">B12/D12</f>
-        <v>4.32547453231676</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">C26/B26</f>
+        <v>3.782135040669</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <f aca="false">C31/B31</f>
         <v>0.381618354727993</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">D26/B26</f>
-        <v>0.270342158269798</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
+      <c r="F31" s="1" t="n">
+        <f aca="false">D31/B31</f>
+        <v>0.236383440041812</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <f aca="false">B13/C13</f>
         <v>4.94119723035476</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <f aca="false">B13/D13</f>
-        <v>4.23837572455195</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">C27/B27</f>
+        <v>4.49558502639939</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <f aca="false">C32/B32</f>
         <v>0.308824826897172</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">D27/B27</f>
-        <v>0.264898482784497</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0" t="n">
+      <c r="F32" s="1" t="n">
+        <f aca="false">D32/B32</f>
+        <v>0.280974064149962</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <f aca="false">B14/C14</f>
         <v>5.75351794888779</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <f aca="false">B14/D14</f>
-        <v>4.318996192992</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <f aca="false">C28/B28</f>
+        <v>5.19979870467581</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <f aca="false">C33/B33</f>
         <v>0.359594871805487</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">D28/B28</f>
-        <v>0.269937262062</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>0.0019507</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>0.105667</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>0.00254083</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <f aca="false">B30/C30</f>
-        <v>0.018460825044716</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <f aca="false">B30/D30</f>
-        <v>0.767741249906527</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>200.1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>0.0132081</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>0.111157</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>0.00960982</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <f aca="false">B31/C31</f>
-        <v>0.118823825759961</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <f aca="false">B31/D31</f>
-        <v>1.3744378146521</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>400.2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>0.0863599</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>0.130463</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>0.0413877</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <f aca="false">B32/C32</f>
-        <v>0.661949364954048</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <f aca="false">B32/D32</f>
-        <v>2.08660785692368</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>800.4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>0.614099</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>0.19987</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>0.253626</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <f aca="false">B33/C33</f>
-        <v>3.07249211987792</v>
-      </c>
       <c r="F33" s="1" t="n">
-        <f aca="false">B33/D33</f>
-        <v>2.42127778697768</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>1600.8</v>
+        <f aca="false">D33/B33</f>
+        <v>0.324987419042238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>6.73074</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.826867</v>
+        <f aca="false">B15/C15</f>
+        <v>5.48087825366907</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>1.36829</v>
+        <f aca="false">B15/D15</f>
+        <v>5.71663307223229</v>
       </c>
       <c r="E34" s="1" t="n">
-        <f aca="false">B34/C34</f>
-        <v>8.14005154396052</v>
+        <f aca="false">C34/B34</f>
+        <v>0.342554890854317</v>
       </c>
       <c r="F34" s="1" t="n">
-        <f aca="false">B34/D34</f>
-        <v>4.91908878965716</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>3200.16</v>
+        <f aca="false">D34/B34</f>
+        <v>0.357289567014518</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B35" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <f aca="false">B16/C16</f>
+        <v>5.40997971853664</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <f aca="false">B16/D16</f>
+        <v>6.0863567484716</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <f aca="false">C35/B35</f>
+        <v>0.33812373240854</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <f aca="false">D35/B35</f>
+        <v>0.380397296779475</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <f aca="false">B17/C17</f>
+        <v>5.84928400386939</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <f aca="false">B17/D17</f>
+        <v>7.00507710617609</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <f aca="false">C36/B36</f>
+        <v>0.365580250241837</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false">D36/B36</f>
+        <v>0.437817319136006</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <f aca="false">B18/C18</f>
+        <v>5.56209401806125</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <f aca="false">B18/D18</f>
+        <v>6.96734867457355</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <f aca="false">C37/B37</f>
+        <v>0.347630876128828</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <f aca="false">D37/B37</f>
+        <v>0.435459292160847</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <f aca="false">B19/C19</f>
+        <v>5.80675637374651</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <f aca="false">B19/D19</f>
+        <v>7.84019301628028</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <f aca="false">C38/B38</f>
+        <v>0.362922273359157</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <f aca="false">D38/B38</f>
+        <v>0.490012063517518</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0.0019507</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0.105667</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.00254083</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <f aca="false">B40/C40</f>
+        <v>0.018460825044716</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">B40/D40</f>
+        <v>0.767741249906527</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>200.1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0.0132081</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.111157</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.00960982</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <f aca="false">B41/C41</f>
+        <v>0.118823825759961</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="false">B41/D41</f>
+        <v>1.3744378146521</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>400.2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0.0863599</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0.130463</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0.0413877</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <f aca="false">B42/C42</f>
+        <v>0.661949364954048</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <f aca="false">B42/D42</f>
+        <v>2.08660785692368</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>800.4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0.614099</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.19987</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.253626</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <f aca="false">B43/C43</f>
+        <v>3.07249211987792</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <f aca="false">B43/D43</f>
+        <v>2.42127778697768</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>1600.8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>6.73074</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.826867</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1.36829</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <f aca="false">B44/C44</f>
+        <v>8.14005154396052</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="false">B44/D44</f>
+        <v>4.91908878965716</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>3200.16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="1" t="n">
         <v>57.4296</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C45" s="1" t="n">
         <v>19.3902</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D45" s="1" t="n">
         <v>17.4641</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <f aca="false">B35/C35</f>
+      <c r="E45" s="1" t="n">
+        <f aca="false">B45/C45</f>
         <v>2.96178481913544</v>
       </c>
-      <c r="F35" s="1" t="n">
-        <f aca="false">B35/D35</f>
+      <c r="F45" s="1" t="n">
+        <f aca="false">B45/D45</f>
         <v>3.28843742305644</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G45" s="1" t="n">
         <v>6400.32</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0.0131547</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.116814</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0.0147998</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <f aca="false">B47/C47</f>
+        <v>0.112612358107761</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <f aca="false">B47/D47</f>
+        <v>0.888843092474223</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>400.1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0.0856351</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.151519</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.0612648</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <f aca="false">B48/C48</f>
+        <v>0.565177304496466</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <f aca="false">B48/D48</f>
+        <v>1.39778633081313</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>800.2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0.603371</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0.279575</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0.296517</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <f aca="false">B49/C49</f>
+        <v>2.15817222569972</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <f aca="false">B49/D49</f>
+        <v>2.03486140760901</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>1600.4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>6.7358</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>2.09223</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2.85002</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <f aca="false">B50/C50</f>
+        <v>3.21943572169408</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <f aca="false">B50/D50</f>
+        <v>2.36342201107361</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>3200.8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>57.172</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>9.92345</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>13.0057</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <f aca="false">B51/C51</f>
+        <v>5.76130277272521</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <f aca="false">B51/D51</f>
+        <v>4.39591871256449</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>6400.16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>414.751</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>103.017</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>109.128</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <f aca="false">B52/C52</f>
+        <v>4.02604424512459</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <f aca="false">B52/D52</f>
+        <v>3.80059196539843</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>12800.32</v>
       </c>
     </row>
   </sheetData>
